--- a/Benchmark/Compare.xlsx
+++ b/Benchmark/Compare.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxofyellow/Projects/Ascii3dEngine/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF447692-967F-7B48-9266-A0780BA1696B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C936A-0D80-8745-8F0E-6D2C4EB47020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{DB605785-6E2F-D842-AA87-F2BDEE7FB0D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Benchmark" sheetId="2" r:id="rId1"/>
-    <sheet name="Org - stop watch" sheetId="1" r:id="rId2"/>
+    <sheet name="Benchmark-1" sheetId="3" r:id="rId1"/>
+    <sheet name="Benchmark-0" sheetId="2" r:id="rId2"/>
+    <sheet name="Org - stop watch" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>max Children</t>
   </si>
@@ -89,7 +90,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -138,7 +139,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
@@ -146,7 +147,27 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -295,7 +316,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Benchmark!$E$2</c:f>
+              <c:f>'Benchmark-0'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -330,7 +351,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Benchmark!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -387,7 +408,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Benchmark!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -468,7 +489,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Benchmark!$G$2</c:f>
+              <c:f>'Benchmark-0'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -503,7 +524,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Benchmark!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -560,7 +581,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Benchmark!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -822,6 +843,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="199545920"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1507,6 +1529,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1830033343"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2791,6 +2814,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="983408400"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -6744,11 +6768,486 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC69C5D9-B88F-FF4D-BBBE-0229262C4A41}">
+  <dimension ref="A1:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>310.19</v>
+      </c>
+      <c r="C3">
+        <v>83.318665375772795</v>
+      </c>
+      <c r="D3">
+        <v>1.0841663811329101</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:G18" si="0">B3/B$3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>509.35</v>
+      </c>
+      <c r="C4">
+        <v>220.549314213397</v>
+      </c>
+      <c r="D4">
+        <v>107.732179718249</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.6420580934266096</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>2.6470576937197055</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>99.368677716858571</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>316.57</v>
+      </c>
+      <c r="C5">
+        <v>220.549314213397</v>
+      </c>
+      <c r="D5">
+        <v>107.54762407982901</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.0205680389438732</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>2.6470576937197055</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>99.198449565873901</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>177.63</v>
+      </c>
+      <c r="C6">
+        <v>220.549314213397</v>
+      </c>
+      <c r="D6">
+        <v>107.546024109021</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.57264902156742636</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>2.6470576937197055</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>99.196973804555483</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>101.06</v>
+      </c>
+      <c r="C7">
+        <v>220.549314213397</v>
+      </c>
+      <c r="D7">
+        <v>106.209796097752</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.32580031593539444</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>2.6470576937197055</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>97.964480310454803</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>63.03</v>
+      </c>
+      <c r="C8">
+        <v>217.112873869791</v>
+      </c>
+      <c r="D8">
+        <v>99.942114050368104</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.20319803991102228</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>2.6058131499178163</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>92.183373133127986</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>46.39</v>
+      </c>
+      <c r="C9">
+        <v>209.00717691026699</v>
+      </c>
+      <c r="D9">
+        <v>98.828655164882704</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.14955349946806795</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>2.5085276626507462</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>91.156354674649435</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="C10">
+        <v>209.00717691026699</v>
+      </c>
+      <c r="D10">
+        <v>97.358698517873705</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.13108095038524775</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>2.5085276626507462</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>89.800514212715029</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>39.21</v>
+      </c>
+      <c r="C11">
+        <v>195.15122341404799</v>
+      </c>
+      <c r="D11">
+        <v>88.705393565048993</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.12640639607982204</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>2.3422269491944312</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>81.818985636093458</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <v>44.05</v>
+      </c>
+      <c r="C12">
+        <v>166.856225535638</v>
+      </c>
+      <c r="D12">
+        <v>69.098734135465904</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.14200973596827751</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>2.0026271998369776</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>63.734437202581873</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13">
+        <v>57.87</v>
+      </c>
+      <c r="C13">
+        <v>163.47782724271801</v>
+      </c>
+      <c r="D13">
+        <v>46.748987224860301</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.18656307424481769</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>1.9620792832605034</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>43.119753608306411</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1024</v>
+      </c>
+      <c r="B14">
+        <v>70.62</v>
+      </c>
+      <c r="C14">
+        <v>121.268297588446</v>
+      </c>
+      <c r="D14">
+        <v>37.287996158909301</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.22766691382700927</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>1.4554757573410209</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>34.393241487478015</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2048</v>
+      </c>
+      <c r="B15">
+        <v>261.44</v>
+      </c>
+      <c r="C15">
+        <v>109.77249200049999</v>
+      </c>
+      <c r="D15">
+        <v>8.1782652260282305</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.84283826042103227</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>1.317501804732693</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>7.5433672989216598</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4096</v>
+      </c>
+      <c r="B16">
+        <v>316.33999999999997</v>
+      </c>
+      <c r="C16">
+        <v>90.509667991878004</v>
+      </c>
+      <c r="D16">
+        <v>3.0590029516550801</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.0198265579161159</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>1.0863072228014372</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>2.8215253718331916</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8192</v>
+      </c>
+      <c r="B17">
+        <v>315.26</v>
+      </c>
+      <c r="C17">
+        <v>90.509667991878004</v>
+      </c>
+      <c r="D17">
+        <v>3.0590029516550801</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.0163448209162127</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.0863072228014372</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>2.8215253718331916</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16384</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2291.39</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>7.3870530964892485</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="L18" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393E3666-8983-354A-B652-1578FACF0E70}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6791,15 +7290,15 @@
         <v>1.09479433449998</v>
       </c>
       <c r="E3">
-        <f>B3/B$3</f>
+        <f t="shared" ref="E3:E18" si="0">B3/B$3</f>
         <v>1</v>
       </c>
       <c r="F3">
-        <f>C3/C$3</f>
+        <f t="shared" ref="F3:F18" si="1">C3/C$3</f>
         <v>1</v>
       </c>
       <c r="G3">
-        <f>D3/D$3</f>
+        <f t="shared" ref="G3:G18" si="2">D3/D$3</f>
         <v>1</v>
       </c>
     </row>
@@ -6817,15 +7316,15 @@
         <v>107.732179718249</v>
       </c>
       <c r="E4">
-        <f>B4/B$3</f>
+        <f t="shared" si="0"/>
         <v>1.6949940439873326</v>
       </c>
       <c r="F4">
-        <f>C4/C$3</f>
+        <f t="shared" si="1"/>
         <v>2.6470576937197055</v>
       </c>
       <c r="G4">
-        <f>D4/D$3</f>
+        <f t="shared" si="2"/>
         <v>98.404034733567556</v>
       </c>
     </row>
@@ -6843,15 +7342,15 @@
         <v>107.54762407982901</v>
       </c>
       <c r="E5">
-        <f>B5/B$3</f>
+        <f t="shared" si="0"/>
         <v>1.0358522908858478</v>
       </c>
       <c r="F5">
-        <f>C5/C$3</f>
+        <f t="shared" si="1"/>
         <v>2.6470576937197055</v>
       </c>
       <c r="G5">
-        <f>D5/D$3</f>
+        <f t="shared" si="2"/>
         <v>98.235459109266131</v>
       </c>
     </row>
@@ -6869,15 +7368,15 @@
         <v>107.546024109021</v>
       </c>
       <c r="E6">
-        <f>B6/B$3</f>
+        <f t="shared" si="0"/>
         <v>0.51390220517737295</v>
       </c>
       <c r="F6">
-        <f>C6/C$3</f>
+        <f t="shared" si="1"/>
         <v>2.6470576937197055</v>
       </c>
       <c r="G6">
-        <f>D6/D$3</f>
+        <f t="shared" si="2"/>
         <v>98.233997674220674</v>
       </c>
     </row>
@@ -6895,15 +7394,15 @@
         <v>106.209796097752</v>
       </c>
       <c r="E7">
-        <f>B7/B$3</f>
+        <f t="shared" si="0"/>
         <v>0.27682384729364595</v>
       </c>
       <c r="F7">
-        <f>C7/C$3</f>
+        <f t="shared" si="1"/>
         <v>2.6470576937197055</v>
       </c>
       <c r="G7">
-        <f>D7/D$3</f>
+        <f t="shared" si="2"/>
         <v>97.013468877933761</v>
       </c>
     </row>
@@ -6921,15 +7420,15 @@
         <v>99.942114050368104</v>
       </c>
       <c r="E8">
-        <f>B8/B$3</f>
+        <f t="shared" si="0"/>
         <v>0.18321276039396844</v>
       </c>
       <c r="F8">
-        <f>C8/C$3</f>
+        <f t="shared" si="1"/>
         <v>2.6058131499178163</v>
       </c>
       <c r="G8">
-        <f>D8/D$3</f>
+        <f t="shared" si="2"/>
         <v>91.288483051946173</v>
       </c>
     </row>
@@ -6947,15 +7446,15 @@
         <v>98.828655164882704</v>
       </c>
       <c r="E9">
-        <f>B9/B$3</f>
+        <f t="shared" si="0"/>
         <v>0.14907463900752493</v>
       </c>
       <c r="F9">
-        <f>C9/C$3</f>
+        <f t="shared" si="1"/>
         <v>2.5085276626507462</v>
       </c>
       <c r="G9">
-        <f>D9/D$3</f>
+        <f t="shared" si="2"/>
         <v>90.271434597823557</v>
       </c>
     </row>
@@ -6973,15 +7472,15 @@
         <v>97.358698517873705</v>
       </c>
       <c r="E10">
-        <f>B10/B$3</f>
+        <f t="shared" si="0"/>
         <v>0.14773816787239608</v>
       </c>
       <c r="F10">
-        <f>C10/C$3</f>
+        <f t="shared" si="1"/>
         <v>2.5085276626507462</v>
       </c>
       <c r="G10">
-        <f>D10/D$3</f>
+        <f t="shared" si="2"/>
         <v>88.928756251136306</v>
       </c>
     </row>
@@ -6999,15 +7498,15 @@
         <v>88.705393565048993</v>
       </c>
       <c r="E11">
-        <f>B11/B$3</f>
+        <f t="shared" si="0"/>
         <v>0.17754728492983526</v>
       </c>
       <c r="F11">
-        <f>C11/C$3</f>
+        <f t="shared" si="1"/>
         <v>2.3422269491944312</v>
       </c>
       <c r="G11">
-        <f>D11/D$3</f>
+        <f t="shared" si="2"/>
         <v>81.024710093666101</v>
       </c>
     </row>
@@ -7025,15 +7524,15 @@
         <v>69.098734135465904</v>
       </c>
       <c r="E12">
-        <f>B12/B$3</f>
+        <f t="shared" si="0"/>
         <v>0.23205206426682939</v>
       </c>
       <c r="F12">
-        <f>C12/C$3</f>
+        <f t="shared" si="1"/>
         <v>2.0026271998369776</v>
       </c>
       <c r="G12">
-        <f>D12/D$3</f>
+        <f t="shared" si="2"/>
         <v>63.115721335025931</v>
       </c>
     </row>
@@ -7051,15 +7550,15 @@
         <v>46.748987224860301</v>
       </c>
       <c r="E13">
-        <f>B13/B$3</f>
+        <f t="shared" si="0"/>
         <v>0.35006827624277287</v>
       </c>
       <c r="F13">
-        <f>C13/C$3</f>
+        <f t="shared" si="1"/>
         <v>1.9620792832605034</v>
       </c>
       <c r="G13">
-        <f>D13/D$3</f>
+        <f t="shared" si="2"/>
         <v>42.70115925125949</v>
       </c>
     </row>
@@ -7077,15 +7576,15 @@
         <v>37.287996158909301</v>
       </c>
       <c r="E14">
-        <f>B14/B$3</f>
+        <f t="shared" si="0"/>
         <v>0.3986170429123449</v>
       </c>
       <c r="F14">
-        <f>C14/C$3</f>
+        <f t="shared" si="1"/>
         <v>1.4554757573410209</v>
       </c>
       <c r="G14">
-        <f>D14/D$3</f>
+        <f t="shared" si="2"/>
         <v>34.059361638859471</v>
       </c>
     </row>
@@ -7103,15 +7602,15 @@
         <v>8.1782652260282305</v>
       </c>
       <c r="E15">
-        <f>B15/B$3</f>
+        <f t="shared" si="0"/>
         <v>0.85603881577035934</v>
       </c>
       <c r="F15">
-        <f>C15/C$3</f>
+        <f t="shared" si="1"/>
         <v>1.317501804732693</v>
       </c>
       <c r="G15">
-        <f>D15/D$3</f>
+        <f t="shared" si="2"/>
         <v>7.4701384253723315</v>
       </c>
     </row>
@@ -7129,15 +7628,15 @@
         <v>3.0590029516550801</v>
       </c>
       <c r="E16">
-        <f>B16/B$3</f>
+        <f t="shared" si="0"/>
         <v>1.1698480490426799</v>
       </c>
       <c r="F16">
-        <f>C16/C$3</f>
+        <f t="shared" si="1"/>
         <v>1.0863072228014372</v>
       </c>
       <c r="G16">
-        <f>D16/D$3</f>
+        <f t="shared" si="2"/>
         <v>2.7941348025446291</v>
       </c>
     </row>
@@ -7155,15 +7654,15 @@
         <v>3.0590029516550801</v>
       </c>
       <c r="E17">
-        <f>B17/B$3</f>
+        <f t="shared" si="0"/>
         <v>1.0309131584299369</v>
       </c>
       <c r="F17">
-        <f>C17/C$3</f>
+        <f t="shared" si="1"/>
         <v>1.0863072228014372</v>
       </c>
       <c r="G17">
-        <f>D17/D$3</f>
+        <f t="shared" si="2"/>
         <v>2.7941348025446291</v>
       </c>
     </row>
@@ -7181,21 +7680,21 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <f>B18/B$3</f>
+        <f t="shared" si="0"/>
         <v>8.755977802957668</v>
       </c>
       <c r="F18">
-        <f>C18/C$3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f>D18/D$3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7204,7 +7703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310253C2-5867-A04F-B696-06BC56F172E8}">
   <dimension ref="A1:U17"/>
   <sheetViews>
@@ -7337,19 +7836,19 @@
         <v>97.105506467866903</v>
       </c>
       <c r="R2" s="3">
-        <f>N2/N$17</f>
+        <f t="shared" ref="R2:R16" si="3">N2/N$17</f>
         <v>0.18627014901635672</v>
       </c>
       <c r="S2" s="3">
-        <f>O2/O$17</f>
+        <f t="shared" ref="S2:S16" si="4">O2/O$17</f>
         <v>1</v>
       </c>
       <c r="T2" s="3">
-        <f>P2/P$17</f>
+        <f t="shared" ref="T2:T16" si="5">P2/P$17</f>
         <v>1</v>
       </c>
       <c r="U2" s="3">
-        <f>Q2/Q$17</f>
+        <f t="shared" ref="U2:U16" si="6">Q2/Q$17</f>
         <v>1</v>
       </c>
     </row>
@@ -7391,7 +7890,7 @@
         <v>107.727930198241</v>
       </c>
       <c r="N3" s="1">
-        <f t="shared" ref="N3:N16" si="3">J3/C$2</f>
+        <f t="shared" ref="N3:N16" si="7">J3/C$2</f>
         <v>1.0116101654305383</v>
       </c>
       <c r="O3" s="1">
@@ -7407,19 +7906,19 @@
         <v>96.937755403957098</v>
       </c>
       <c r="R3" s="3">
-        <f>N3/N$17</f>
+        <f t="shared" si="3"/>
         <v>0.11767066450451798</v>
       </c>
       <c r="S3" s="3">
-        <f>O3/O$17</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T3" s="3">
-        <f>P3/P$17</f>
+        <f t="shared" si="5"/>
         <v>0.99827248659719081</v>
       </c>
       <c r="U3" s="3">
-        <f>Q3/Q$17</f>
+        <f t="shared" si="6"/>
         <v>0.99827248659719092</v>
       </c>
     </row>
@@ -7461,7 +7960,7 @@
         <v>107.726357153085</v>
       </c>
       <c r="N4" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.60226350873342693</v>
       </c>
       <c r="O4" s="1">
@@ -7477,19 +7976,19 @@
         <v>96.936339917125679</v>
       </c>
       <c r="R4" s="3">
-        <f>N4/N$17</f>
+        <f t="shared" si="3"/>
         <v>7.0055392582303075E-2</v>
       </c>
       <c r="S4" s="3">
-        <f>O4/O$17</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T4" s="3">
-        <f>P4/P$17</f>
+        <f t="shared" si="5"/>
         <v>0.99825790980455653</v>
       </c>
       <c r="U4" s="3">
-        <f>Q4/Q$17</f>
+        <f t="shared" si="6"/>
         <v>0.99825790980455675</v>
       </c>
     </row>
@@ -7531,7 +8030,7 @@
         <v>106.40111233718299</v>
       </c>
       <c r="N5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.31657081319077662</v>
       </c>
       <c r="O5" s="1">
@@ -7547,19 +8046,19 @@
         <v>95.743833409501633</v>
       </c>
       <c r="R5" s="3">
-        <f>N5/N$17</f>
+        <f t="shared" si="3"/>
         <v>3.6823570209024492E-2</v>
       </c>
       <c r="S5" s="3">
-        <f>O5/O$17</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T5" s="3">
-        <f>P5/P$17</f>
+        <f t="shared" si="5"/>
         <v>0.98597738575395966</v>
       </c>
       <c r="U5" s="3">
-        <f>Q5/Q$17</f>
+        <f t="shared" si="6"/>
         <v>0.98597738575395966</v>
       </c>
     </row>
@@ -7601,7 +8100,7 @@
         <v>100.12295900831499</v>
       </c>
       <c r="N6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.20582736960538878</v>
       </c>
       <c r="O6" s="1">
@@ -7617,19 +8116,19 @@
         <v>90.094508386154232</v>
       </c>
       <c r="R6" s="3">
-        <f>N6/N$17</f>
+        <f t="shared" si="3"/>
         <v>2.3941874234107988E-2</v>
       </c>
       <c r="S6" s="3">
-        <f>O6/O$17</f>
+        <f t="shared" si="4"/>
         <v>0.98943536768846996</v>
       </c>
       <c r="T6" s="3">
-        <f>P6/P$17</f>
+        <f t="shared" si="5"/>
         <v>0.9278002006607865</v>
       </c>
       <c r="U6" s="3">
-        <f>Q6/Q$17</f>
+        <f t="shared" si="6"/>
         <v>0.92780020066078672</v>
       </c>
     </row>
@@ -7671,7 +8170,7 @@
         <v>98.996905601693598</v>
       </c>
       <c r="N7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.17863934849692506</v>
       </c>
       <c r="O7" s="1">
@@ -7687,19 +8186,19 @@
         <v>89.081242007583825</v>
       </c>
       <c r="R7" s="3">
-        <f>N7/N$17</f>
+        <f t="shared" si="3"/>
         <v>2.0779359048197214E-2</v>
       </c>
       <c r="S7" s="3">
-        <f>O7/O$17</f>
+        <f t="shared" si="4"/>
         <v>0.94746752136938728</v>
       </c>
       <c r="T7" s="3">
-        <f>P7/P$17</f>
+        <f t="shared" si="5"/>
         <v>0.91736550529255112</v>
       </c>
       <c r="U7" s="3">
-        <f>Q7/Q$17</f>
+        <f t="shared" si="6"/>
         <v>0.91736550529255123</v>
       </c>
     </row>
@@ -7741,7 +8240,7 @@
         <v>97.537806992006495</v>
       </c>
       <c r="N8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.16693674634655206</v>
       </c>
       <c r="O8" s="1">
@@ -7757,19 +8256,19 @@
         <v>87.76828868270492</v>
       </c>
       <c r="R8" s="3">
-        <f>N8/N$17</f>
+        <f t="shared" si="3"/>
         <v>1.9418110398743083E-2</v>
       </c>
       <c r="S8" s="3">
-        <f>O8/O$17</f>
+        <f t="shared" si="4"/>
         <v>0.94746752136938728</v>
       </c>
       <c r="T8" s="3">
-        <f>P8/P$17</f>
+        <f t="shared" si="5"/>
         <v>0.90384461062203769</v>
       </c>
       <c r="U8" s="3">
-        <f>Q8/Q$17</f>
+        <f t="shared" si="6"/>
         <v>0.90384461062203769</v>
       </c>
     </row>
@@ -7811,7 +8310,7 @@
         <v>88.850952604859302</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.19226809370815007</v>
       </c>
       <c r="O9" s="1">
@@ -7827,19 +8326,19 @@
         <v>79.951521347980659</v>
       </c>
       <c r="R9" s="3">
-        <f>N9/N$17</f>
+        <f t="shared" si="3"/>
         <v>2.2364656982293282E-2</v>
       </c>
       <c r="S9" s="3">
-        <f>O9/O$17</f>
+        <f t="shared" si="4"/>
         <v>0.88433934367207456</v>
       </c>
       <c r="T9" s="3">
-        <f>P9/P$17</f>
+        <f t="shared" si="5"/>
         <v>0.82334693732777486</v>
       </c>
       <c r="U9" s="3">
-        <f>Q9/Q$17</f>
+        <f t="shared" si="6"/>
         <v>0.82334693732777497</v>
       </c>
     </row>
@@ -7881,7 +8380,7 @@
         <v>69.215855866950804</v>
       </c>
       <c r="N10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.26478838654541009</v>
       </c>
       <c r="O10" s="1">
@@ -7897,19 +8396,19 @@
         <v>62.283102383559779</v>
       </c>
       <c r="R10" s="3">
-        <f>N10/N$17</f>
+        <f t="shared" si="3"/>
         <v>3.0800229636499251E-2</v>
       </c>
       <c r="S10" s="3">
-        <f>O10/O$17</f>
+        <f t="shared" si="4"/>
         <v>0.75536159015371185</v>
       </c>
       <c r="T10" s="3">
-        <f>P10/P$17</f>
+        <f t="shared" si="5"/>
         <v>0.6413961952216356</v>
       </c>
       <c r="U10" s="3">
-        <f>Q10/Q$17</f>
+        <f t="shared" si="6"/>
         <v>0.64139619522163582</v>
       </c>
     </row>
@@ -7951,7 +8450,7 @@
         <v>46.892887742552197</v>
       </c>
       <c r="N11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.40130437852326389</v>
       </c>
       <c r="O11" s="1">
@@ -7967,19 +8466,19 @@
         <v>42.196032856175357</v>
       </c>
       <c r="R11" s="3">
-        <f>N11/N$17</f>
+        <f t="shared" si="3"/>
         <v>4.6679792773046756E-2</v>
       </c>
       <c r="S11" s="3">
-        <f>O11/O$17</f>
+        <f t="shared" si="4"/>
         <v>0.74500761389127734</v>
       </c>
       <c r="T11" s="3">
-        <f>P11/P$17</f>
+        <f t="shared" si="5"/>
         <v>0.4345380029518553</v>
       </c>
       <c r="U11" s="3">
-        <f>Q11/Q$17</f>
+        <f t="shared" si="6"/>
         <v>0.43453800295185535</v>
       </c>
     </row>
@@ -8021,7 +8520,7 @@
         <v>37.392589943296201</v>
       </c>
       <c r="N12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.46122634038205851</v>
       </c>
       <c r="O12" s="1">
@@ -8037,19 +8536,19 @@
         <v>33.647297698688156</v>
       </c>
       <c r="R12" s="3">
-        <f>N12/N$17</f>
+        <f t="shared" si="3"/>
         <v>5.3649925449934042E-2</v>
       </c>
       <c r="S12" s="3">
-        <f>O12/O$17</f>
+        <f t="shared" si="4"/>
         <v>0.55021944078868024</v>
       </c>
       <c r="T12" s="3">
-        <f>P12/P$17</f>
+        <f t="shared" si="5"/>
         <v>0.34650246852707933</v>
       </c>
       <c r="U12" s="3">
-        <f>Q12/Q$17</f>
+        <f t="shared" si="6"/>
         <v>0.34650246852707939</v>
       </c>
     </row>
@@ -8091,7 +8590,7 @@
         <v>8.2046504529614896</v>
       </c>
       <c r="N13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.94713044947780345</v>
       </c>
       <c r="O13" s="1">
@@ -8107,19 +8606,19 @@
         <v>7.3828615969930995</v>
       </c>
       <c r="R13" s="3">
-        <f>N13/N$17</f>
+        <f t="shared" si="3"/>
         <v>0.1101703731052202</v>
       </c>
       <c r="S13" s="3">
-        <f>O13/O$17</f>
+        <f t="shared" si="4"/>
         <v>0.50025953803979695</v>
       </c>
       <c r="T13" s="3">
-        <f>P13/P$17</f>
+        <f t="shared" si="5"/>
         <v>7.6029278519196594E-2</v>
       </c>
       <c r="U13" s="3">
-        <f>Q13/Q$17</f>
+        <f t="shared" si="6"/>
         <v>7.6029278519196594E-2</v>
       </c>
     </row>
@@ -8161,7 +8660,7 @@
         <v>3.0422067852394199</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1444598789192391</v>
       </c>
       <c r="O14" s="1">
@@ -8177,19 +8676,19 @@
         <v>2.7374952502393177</v>
       </c>
       <c r="R14" s="3">
-        <f>N14/N$17</f>
+        <f t="shared" si="3"/>
         <v>0.13312376551086966</v>
       </c>
       <c r="S14" s="3">
-        <f>O14/O$17</f>
+        <f t="shared" si="4"/>
         <v>0.41247423532615118</v>
       </c>
       <c r="T14" s="3">
-        <f>P14/P$17</f>
+        <f t="shared" si="5"/>
         <v>2.8190937360953676E-2</v>
       </c>
       <c r="U14" s="3">
-        <f>Q14/Q$17</f>
+        <f t="shared" si="6"/>
         <v>2.8190937360953676E-2</v>
       </c>
     </row>
@@ -8231,7 +8730,7 @@
         <v>3.0422067852394199</v>
       </c>
       <c r="N15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.1496454087730388</v>
       </c>
       <c r="O15" s="1">
@@ -8247,19 +8746,19 @@
         <v>2.7374952502393177</v>
       </c>
       <c r="R15" s="3">
-        <f>N15/N$17</f>
+        <f t="shared" si="3"/>
         <v>0.13372694721520231</v>
       </c>
       <c r="S15" s="3">
-        <f>O15/O$17</f>
+        <f t="shared" si="4"/>
         <v>0.41247423532615118</v>
       </c>
       <c r="T15" s="3">
-        <f>P15/P$17</f>
+        <f t="shared" si="5"/>
         <v>2.8190937360953676E-2</v>
       </c>
       <c r="U15" s="3">
-        <f>Q15/Q$17</f>
+        <f t="shared" si="6"/>
         <v>2.8190937360953676E-2</v>
       </c>
     </row>
@@ -8301,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.5969614405610617</v>
       </c>
       <c r="O16" s="1">
@@ -8317,19 +8816,19 @@
         <v>0</v>
       </c>
       <c r="R16" s="3">
-        <f>N16/N$17</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="S16" s="3">
-        <f>O16/O$17</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="T16" s="3">
-        <f>P16/P$17</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U16" s="3">
-        <f>Q16/Q$17</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -8371,17 +8870,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>$F$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Benchmark/Compare.xlsx
+++ b/Benchmark/Compare.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxofyellow/Projects/Ascii3dEngine/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{666C936A-0D80-8745-8F0E-6D2C4EB47020}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B526B96D-7430-3E4C-83CE-829E7794C2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{DB605785-6E2F-D842-AA87-F2BDEE7FB0D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Benchmark-1" sheetId="3" r:id="rId1"/>
-    <sheet name="Benchmark-0" sheetId="2" r:id="rId2"/>
-    <sheet name="Org - stop watch" sheetId="1" r:id="rId3"/>
+    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId1"/>
+    <sheet name="Benchmark-1" sheetId="3" r:id="rId2"/>
+    <sheet name="Benchmark-0" sheetId="2" r:id="rId3"/>
+    <sheet name="Org - stop watch" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>max Children</t>
   </si>
@@ -147,17 +148,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -316,7 +307,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -351,7 +342,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -408,7 +399,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -416,49 +407,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6949940439873326</c:v>
+                  <c:v>1.6420580934266096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0358522908858478</c:v>
+                  <c:v>1.0205680389438732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51390220517737295</c:v>
+                  <c:v>0.57264902156742636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27682384729364595</c:v>
+                  <c:v>0.32580031593539444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18321276039396844</c:v>
+                  <c:v>0.20319803991102228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14907463900752493</c:v>
+                  <c:v>0.14955349946806795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14773816787239608</c:v>
+                  <c:v>0.13108095038524775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17754728492983526</c:v>
+                  <c:v>0.12640639607982204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23205206426682939</c:v>
+                  <c:v>0.14200973596827751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35006827624277287</c:v>
+                  <c:v>0.18656307424481769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3986170429123449</c:v>
+                  <c:v>0.22766691382700927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85603881577035934</c:v>
+                  <c:v>0.84283826042103227</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1698480490426799</c:v>
+                  <c:v>1.0198265579161159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0309131584299369</c:v>
+                  <c:v>1.0163448209162127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.755977802957668</c:v>
+                  <c:v>7.3870530964892485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -466,7 +457,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -489,7 +480,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -524,7 +515,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -581,7 +572,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -589,46 +580,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.404034733567556</c:v>
+                  <c:v>55.71913075421476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.235459109266131</c:v>
+                  <c:v>55.716286695852901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.233997674220674</c:v>
+                  <c:v>55.711188010860909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.013468877933761</c:v>
+                  <c:v>55.612390656014746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.288483051946173</c:v>
+                  <c:v>55.394170828306606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.271434597823557</c:v>
+                  <c:v>55.008148494607319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.928756251136306</c:v>
+                  <c:v>53.870118934010868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.024710093666101</c:v>
+                  <c:v>52.406175880511945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.115721335025931</c:v>
+                  <c:v>50.256856579395418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.70115925125949</c:v>
+                  <c:v>46.471562538433759</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.059361638859471</c:v>
+                  <c:v>44.774903095738722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4701384253723315</c:v>
+                  <c:v>8.5190536736438887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -639,7 +630,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -964,6 +955,704 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>C Search &amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> C Avg vs Max Children</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6949940439873326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0358522908858478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51390220517737295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27682384729364595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18321276039396844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14907463900752493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14773816787239608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17754728492983526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23205206426682939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35006827624277287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3986170429123449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85603881577035934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1698480490426799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0309131584299369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.755977802957668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="200140560"/>
+        <c:axId val="1829147359"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Avg Dif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.404034733567556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.235459109266131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.233997674220674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.013468877933761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.288483051946173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.271434597823557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.928756251136306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.024710093666101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.115721335025931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.70115925125949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.059361638859471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4701384253723315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830783935"/>
+        <c:axId val="199545920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="200140560"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1829147359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1829147359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200140560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199545920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830783935"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830783935"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199545920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Time</a:t>
             </a:r>
             <a:r>
@@ -1615,7 +2304,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2216,7 +2905,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2900,7 +3589,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3702,6 +4391,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -6282,7 +7011,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740C64C1-7C37-8D44-A046-7FAD9C1B77A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6323,7 +7611,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6768,10 +8056,485 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B42892-40D1-4548-A56D-9001ACB7B0BC}">
+  <dimension ref="A2:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>310.19</v>
+      </c>
+      <c r="C3">
+        <v>2.4888430668772998</v>
+      </c>
+      <c r="D3">
+        <v>8.4649732656128199E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:G18" si="0">B3/B$3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>509.35</v>
+      </c>
+      <c r="C4">
+        <v>82.024386617639493</v>
+      </c>
+      <c r="D4">
+        <v>4.7166095221761299</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.6420580934266096</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>32.956833522072486</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>55.71913075421476</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>316.57</v>
+      </c>
+      <c r="C5">
+        <v>82.024386617639493</v>
+      </c>
+      <c r="D5">
+        <v>4.7163687733961401</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.0205680389438732</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>32.956833522072486</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>55.716286695852901</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>177.63</v>
+      </c>
+      <c r="C6">
+        <v>82.024386617639493</v>
+      </c>
+      <c r="D6">
+        <v>4.7159371710746703</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.57264902156742636</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>32.956833522072486</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>55.711188010860909</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>101.06</v>
+      </c>
+      <c r="C7">
+        <v>82.024386617639493</v>
+      </c>
+      <c r="D7">
+        <v>4.7075740013998102</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.32580031593539444</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>32.956833522072486</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>55.612390656014746</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>63.03</v>
+      </c>
+      <c r="C8">
+        <v>82.024386617639493</v>
+      </c>
+      <c r="D8">
+        <v>4.68910175132405</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.20319803991102228</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>32.956833522072486</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>55.394170828306606</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>46.39</v>
+      </c>
+      <c r="C9">
+        <v>82.024386617639493</v>
+      </c>
+      <c r="D9">
+        <v>4.6564250639771103</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.14955349946806795</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>32.956833522072486</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>55.008148494607319</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="C10">
+        <v>82.024386617639493</v>
+      </c>
+      <c r="D10">
+        <v>4.56009116591785</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.13108095038524775</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>32.956833522072486</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>53.870118934010868</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>39.21</v>
+      </c>
+      <c r="C11">
+        <v>82.024386617639493</v>
+      </c>
+      <c r="D11">
+        <v>4.4361687778153698</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.12640639607982204</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>32.956833522072486</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>52.406175880511945</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <v>44.05</v>
+      </c>
+      <c r="C12">
+        <v>82.024386617639493</v>
+      </c>
+      <c r="D12">
+        <v>4.2542294735831998</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.14200973596827751</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>32.956833522072486</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>50.256856579395418</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13">
+        <v>57.87</v>
+      </c>
+      <c r="C13">
+        <v>82.024386617639493</v>
+      </c>
+      <c r="D13">
+        <v>3.9338053449909598</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.18656307424481769</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>32.956833522072486</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>46.471562538433759</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1024</v>
+      </c>
+      <c r="B14">
+        <v>70.62</v>
+      </c>
+      <c r="C14">
+        <v>82.024386617639493</v>
+      </c>
+      <c r="D14">
+        <v>3.7901835767583298</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.22766691382700927</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>32.956833522072486</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>44.774903095738722</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2048</v>
+      </c>
+      <c r="B15">
+        <v>261.44</v>
+      </c>
+      <c r="C15">
+        <v>57.7541399770301</v>
+      </c>
+      <c r="D15">
+        <v>0.72113561595716202</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.84283826042103227</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>23.205215606258786</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>8.5190536736438887</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4096</v>
+      </c>
+      <c r="B16">
+        <v>316.33999999999997</v>
+      </c>
+      <c r="C16">
+        <v>57.7541399770301</v>
+      </c>
+      <c r="D16">
+        <v>0.62575569912772</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.0198265579161159</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>23.205215606258786</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>7.3922938619277323</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8192</v>
+      </c>
+      <c r="B17">
+        <v>315.26</v>
+      </c>
+      <c r="C17">
+        <v>57.7541399770301</v>
+      </c>
+      <c r="D17">
+        <v>0.62575569912772</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.0163448209162127</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>23.205215606258786</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>7.3922938619277323</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16384</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2291.39</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>7.3870530964892485</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B18">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC69C5D9-B88F-FF4D-BBBE-0229262C4A41}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7234,7 +8997,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7242,7 +9005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393E3666-8983-354A-B652-1578FACF0E70}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -7694,7 +9457,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7703,7 +9466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310253C2-5867-A04F-B696-06BC56F172E8}">
   <dimension ref="A1:U17"/>
   <sheetViews>
@@ -8870,17 +10633,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J16">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K16">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>$F$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Benchmark/Compare.xlsx
+++ b/Benchmark/Compare.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxofyellow/Projects/Ascii3dEngine/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B526B96D-7430-3E4C-83CE-829E7794C2D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E52032-3BDB-E342-B2AD-E9542B18C417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{DB605785-6E2F-D842-AA87-F2BDEE7FB0D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId1"/>
-    <sheet name="Benchmark-1" sheetId="3" r:id="rId2"/>
-    <sheet name="Benchmark-0" sheetId="2" r:id="rId3"/>
-    <sheet name="Org - stop watch" sheetId="1" r:id="rId4"/>
+    <sheet name="Benchmark-IgnoreBackground" sheetId="5" r:id="rId1"/>
+    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId2"/>
+    <sheet name="Benchmark-1" sheetId="3" r:id="rId3"/>
+    <sheet name="Benchmark-0" sheetId="2" r:id="rId4"/>
+    <sheet name="Org - stop watch" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
   <si>
     <t>max Children</t>
   </si>
@@ -148,7 +149,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -307,7 +318,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -342,7 +353,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -399,7 +410,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -407,49 +418,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6420580934266096</c:v>
+                  <c:v>1.9010930418555054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0205680389438732</c:v>
+                  <c:v>1.0918421754198882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57264902156742636</c:v>
+                  <c:v>0.59554118901626241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32580031593539444</c:v>
+                  <c:v>0.33717675286590248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20319803991102228</c:v>
+                  <c:v>0.21837509997334045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14955349946806795</c:v>
+                  <c:v>0.1563249800053319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13108095038524775</c:v>
+                  <c:v>0.13599706744868037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12640639607982204</c:v>
+                  <c:v>0.12999866702212742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14200973596827751</c:v>
+                  <c:v>0.14666089042921887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18656307424481769</c:v>
+                  <c:v>0.19348173820314585</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22766691382700927</c:v>
+                  <c:v>0.23810317248733673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84283826042103227</c:v>
+                  <c:v>0.88892961876832854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0198265579161159</c:v>
+                  <c:v>1.0965075979738739</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0163448209162127</c:v>
+                  <c:v>1.0890429218874969</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3870530964892485</c:v>
+                  <c:v>8.0780791788856323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -457,7 +468,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
+              <c16:uniqueId val="{00000000-0279-4742-B2B7-DEBAB787DE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -480,7 +491,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -515,7 +526,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -572,7 +583,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -580,46 +591,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.71913075421476</c:v>
+                  <c:v>75.130377145242406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.716286695852901</c:v>
+                  <c:v>75.12798530346781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.711188010860909</c:v>
+                  <c:v>75.120529440332277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.612390656014746</c:v>
+                  <c:v>74.946596950479957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.394170828306606</c:v>
+                  <c:v>74.659514274832489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.008148494607319</c:v>
+                  <c:v>74.361122028143001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.870118934010868</c:v>
+                  <c:v>72.800230865205037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.406175880511945</c:v>
+                  <c:v>70.743013765614279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.256856579395418</c:v>
+                  <c:v>68.016750853814955</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.471562538433759</c:v>
+                  <c:v>62.47875510616015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.774903095738722</c:v>
+                  <c:v>60.272480055923516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5190536736438887</c:v>
+                  <c:v>11.175554652510222</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3922938619277323</c:v>
+                  <c:v>9.6411995187386239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3922938619277323</c:v>
+                  <c:v>9.6411995187386239</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -630,7 +641,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
+              <c16:uniqueId val="{00000001-0279-4742-B2B7-DEBAB787DE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1005,7 +1016,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1040,7 +1051,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1097,7 +1108,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1105,49 +1116,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6949940439873326</c:v>
+                  <c:v>1.6420580934266096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0358522908858478</c:v>
+                  <c:v>1.0205680389438732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51390220517737295</c:v>
+                  <c:v>0.57264902156742636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27682384729364595</c:v>
+                  <c:v>0.32580031593539444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18321276039396844</c:v>
+                  <c:v>0.20319803991102228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14907463900752493</c:v>
+                  <c:v>0.14955349946806795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14773816787239608</c:v>
+                  <c:v>0.13108095038524775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17754728492983526</c:v>
+                  <c:v>0.12640639607982204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23205206426682939</c:v>
+                  <c:v>0.14200973596827751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35006827624277287</c:v>
+                  <c:v>0.18656307424481769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3986170429123449</c:v>
+                  <c:v>0.22766691382700927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85603881577035934</c:v>
+                  <c:v>0.84283826042103227</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1698480490426799</c:v>
+                  <c:v>1.0198265579161159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0309131584299369</c:v>
+                  <c:v>1.0163448209162127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.755977802957668</c:v>
+                  <c:v>7.3870530964892485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1155,7 +1166,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1178,7 +1189,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1213,7 +1224,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1270,7 +1281,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1278,46 +1289,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.404034733567556</c:v>
+                  <c:v>55.71913075421476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.235459109266131</c:v>
+                  <c:v>55.716286695852901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.233997674220674</c:v>
+                  <c:v>55.711188010860909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.013468877933761</c:v>
+                  <c:v>55.612390656014746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.288483051946173</c:v>
+                  <c:v>55.394170828306606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.271434597823557</c:v>
+                  <c:v>55.008148494607319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.928756251136306</c:v>
+                  <c:v>53.870118934010868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.024710093666101</c:v>
+                  <c:v>52.406175880511945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.115721335025931</c:v>
+                  <c:v>50.256856579395418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.70115925125949</c:v>
+                  <c:v>46.471562538433759</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.059361638859471</c:v>
+                  <c:v>44.774903095738722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4701384253723315</c:v>
+                  <c:v>8.5190536736438887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1328,7 +1339,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1653,6 +1664,704 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>C Search &amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> C Avg vs Max Children</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6949940439873326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0358522908858478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51390220517737295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27682384729364595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18321276039396844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14907463900752493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14773816787239608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17754728492983526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23205206426682939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35006827624277287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3986170429123449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85603881577035934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1698480490426799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0309131584299369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.755977802957668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="200140560"/>
+        <c:axId val="1829147359"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Avg Dif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.404034733567556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.235459109266131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.233997674220674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.013468877933761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.288483051946173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.271434597823557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.928756251136306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.024710093666101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.115721335025931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.70115925125949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.059361638859471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4701384253723315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830783935"/>
+        <c:axId val="199545920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="200140560"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1829147359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1829147359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200140560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199545920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830783935"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830783935"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199545920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Time</a:t>
             </a:r>
             <a:r>
@@ -2304,7 +3013,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2905,7 +3614,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3589,7 +4298,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4431,6 +5140,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -7527,7 +8276,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310D69AC-5546-E54B-8C12-154841A04AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7570,7 +8878,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -7611,7 +8919,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8056,10 +9364,467 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB006D-EF5F-2D4D-86DC-4D6E506A45E0}">
+  <dimension ref="A2:L18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>300.08</v>
+      </c>
+      <c r="C3">
+        <v>1.26138969316015</v>
+      </c>
+      <c r="D3">
+        <v>6.3556460153053093E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:G18" si="0">B3/B$3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>570.48</v>
+      </c>
+      <c r="C4">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D4">
+        <v>4.7750208213154499</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.9010930418555054</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>75.130377145242406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>327.64</v>
+      </c>
+      <c r="C5">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D5">
+        <v>4.7748688043190102</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.0918421754198882</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>75.12798530346781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>178.71</v>
+      </c>
+      <c r="C6">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D6">
+        <v>4.7743949360507303</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.59554118901626241</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>75.120529440332277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>101.18</v>
+      </c>
+      <c r="C7">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D7">
+        <v>4.7633404026901101</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.33717675286590248</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>74.946596950479957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>65.53</v>
+      </c>
+      <c r="C8">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D8">
+        <v>4.7450944440546898</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.21837509997334045</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>74.659514274832489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>46.91</v>
+      </c>
+      <c r="C9">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D9">
+        <v>4.7261296891179896</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.1563249800053319</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>74.361122028143001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>40.81</v>
+      </c>
+      <c r="C10">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D10">
+        <v>4.6269249721174699</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.13599706744868037</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>72.800230865205037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>39.01</v>
+      </c>
+      <c r="C11">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D11">
+        <v>4.4961755355011501</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.12999866702212742</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>70.743013765614279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <v>44.01</v>
+      </c>
+      <c r="C12">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D12">
+        <v>4.3229039153806301</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.14666089042921887</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>68.016750853814955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13">
+        <v>58.06</v>
+      </c>
+      <c r="C13">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D13">
+        <v>3.9709285093170301</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.19348173820314585</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>62.47875510616015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1024</v>
+      </c>
+      <c r="B14">
+        <v>71.45</v>
+      </c>
+      <c r="C14">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D14">
+        <v>3.8307054769999902</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.23810317248733673</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>60.272480055923516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2048</v>
+      </c>
+      <c r="B15">
+        <v>266.75</v>
+      </c>
+      <c r="C15">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D15">
+        <v>0.710278693960533</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.88892961876832854</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>11.175554652510222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4096</v>
+      </c>
+      <c r="B16">
+        <v>329.04</v>
+      </c>
+      <c r="C16">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D16">
+        <v>0.61276051304034596</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.0965075979738739</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>9.6411995187386239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8192</v>
+      </c>
+      <c r="B17">
+        <v>326.8</v>
+      </c>
+      <c r="C17">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.61276051304034596</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.0890429218874969</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>9.6411995187386239</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16384</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2424.0700000000002</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8.0780791788856323</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B18">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B42892-40D1-4548-A56D-9001ACB7B0BC}">
   <dimension ref="A2:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
@@ -8519,7 +10284,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8528,7 +10293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC69C5D9-B88F-FF4D-BBBE-0229262C4A41}">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -8997,7 +10762,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9005,7 +10770,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393E3666-8983-354A-B652-1578FACF0E70}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -9457,7 +11222,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9466,7 +11231,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310253C2-5867-A04F-B696-06BC56F172E8}">
   <dimension ref="A1:U17"/>
   <sheetViews>
@@ -10633,17 +12398,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J16">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K16">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M16">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
       <formula>$F$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Benchmark/Compare.xlsx
+++ b/Benchmark/Compare.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxofyellow/Projects/Ascii3dEngine/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E52032-3BDB-E342-B2AD-E9542B18C417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173693A0-7737-714F-8B09-B8A4FC32072B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{DB605785-6E2F-D842-AA87-F2BDEE7FB0D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Benchmark-IgnoreBackground" sheetId="5" r:id="rId1"/>
-    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId2"/>
-    <sheet name="Benchmark-1" sheetId="3" r:id="rId3"/>
-    <sheet name="Benchmark-0" sheetId="2" r:id="rId4"/>
-    <sheet name="Org - stop watch" sheetId="1" r:id="rId5"/>
+    <sheet name="Benchmark-SplitBy4" sheetId="6" r:id="rId1"/>
+    <sheet name="Benchmark-IgnoreBackground" sheetId="5" r:id="rId2"/>
+    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId3"/>
+    <sheet name="Benchmark-1" sheetId="3" r:id="rId4"/>
+    <sheet name="Benchmark-0" sheetId="2" r:id="rId5"/>
+    <sheet name="Org - stop watch" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
   <si>
     <t>max Children</t>
   </si>
@@ -149,7 +150,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -318,7 +329,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreBackground'!$E$2</c:f>
+              <c:f>'Benchmark-SplitBy4'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -353,7 +364,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -410,7 +421,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -418,49 +429,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9010930418555054</c:v>
+                  <c:v>2.691465877600864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0918421754198882</c:v>
+                  <c:v>1.5482598280963786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59554118901626241</c:v>
+                  <c:v>0.84040204781363026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33717675286590248</c:v>
+                  <c:v>0.47217134000281813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21837509997334045</c:v>
+                  <c:v>0.30576299845004928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1563249800053319</c:v>
+                  <c:v>0.22131417030670236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13599706744868037</c:v>
+                  <c:v>0.19383777182847214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12999866702212742</c:v>
+                  <c:v>0.18129726175379268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14666089042921887</c:v>
+                  <c:v>0.20590859987788268</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19348173820314585</c:v>
+                  <c:v>0.27467004837724857</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23810317248733673</c:v>
+                  <c:v>0.33535296604198961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88892961876832854</c:v>
+                  <c:v>1.2496359964304167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0965075979738739</c:v>
+                  <c:v>1.5384434737682591</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0890429218874969</c:v>
+                  <c:v>1.5351087313888496</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.0780791788856323</c:v>
+                  <c:v>11.377812221126296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -468,7 +479,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0279-4742-B2B7-DEBAB787DE3C}"/>
+              <c16:uniqueId val="{00000000-FB93-F54A-AE72-567299124932}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -491,7 +502,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreBackground'!$G$2</c:f>
+              <c:f>'Benchmark-SplitBy4'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -526,7 +537,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -583,7 +594,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -641,7 +652,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0279-4742-B2B7-DEBAB787DE3C}"/>
+              <c16:uniqueId val="{00000001-FB93-F54A-AE72-567299124932}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1016,7 +1027,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1051,7 +1062,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1108,7 +1119,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1116,49 +1127,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6420580934266096</c:v>
+                  <c:v>1.9010930418555054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0205680389438732</c:v>
+                  <c:v>1.0918421754198882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57264902156742636</c:v>
+                  <c:v>0.59554118901626241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32580031593539444</c:v>
+                  <c:v>0.33717675286590248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20319803991102228</c:v>
+                  <c:v>0.21837509997334045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14955349946806795</c:v>
+                  <c:v>0.1563249800053319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13108095038524775</c:v>
+                  <c:v>0.13599706744868037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12640639607982204</c:v>
+                  <c:v>0.12999866702212742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14200973596827751</c:v>
+                  <c:v>0.14666089042921887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18656307424481769</c:v>
+                  <c:v>0.19348173820314585</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22766691382700927</c:v>
+                  <c:v>0.23810317248733673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84283826042103227</c:v>
+                  <c:v>0.88892961876832854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0198265579161159</c:v>
+                  <c:v>1.0965075979738739</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0163448209162127</c:v>
+                  <c:v>1.0890429218874969</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3870530964892485</c:v>
+                  <c:v>8.0780791788856323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1166,7 +1177,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
+              <c16:uniqueId val="{00000000-0279-4742-B2B7-DEBAB787DE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1189,7 +1200,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1224,7 +1235,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1281,7 +1292,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1289,46 +1300,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.71913075421476</c:v>
+                  <c:v>75.130377145242406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.716286695852901</c:v>
+                  <c:v>75.12798530346781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.711188010860909</c:v>
+                  <c:v>75.120529440332277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.612390656014746</c:v>
+                  <c:v>74.946596950479957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.394170828306606</c:v>
+                  <c:v>74.659514274832489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.008148494607319</c:v>
+                  <c:v>74.361122028143001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.870118934010868</c:v>
+                  <c:v>72.800230865205037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.406175880511945</c:v>
+                  <c:v>70.743013765614279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.256856579395418</c:v>
+                  <c:v>68.016750853814955</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.471562538433759</c:v>
+                  <c:v>62.47875510616015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.774903095738722</c:v>
+                  <c:v>60.272480055923516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5190536736438887</c:v>
+                  <c:v>11.175554652510222</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3922938619277323</c:v>
+                  <c:v>9.6411995187386239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3922938619277323</c:v>
+                  <c:v>9.6411995187386239</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -1339,7 +1350,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
+              <c16:uniqueId val="{00000001-0279-4742-B2B7-DEBAB787DE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1714,7 +1725,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1749,7 +1760,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1806,7 +1817,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1814,49 +1825,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6949940439873326</c:v>
+                  <c:v>1.6420580934266096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0358522908858478</c:v>
+                  <c:v>1.0205680389438732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51390220517737295</c:v>
+                  <c:v>0.57264902156742636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27682384729364595</c:v>
+                  <c:v>0.32580031593539444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18321276039396844</c:v>
+                  <c:v>0.20319803991102228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14907463900752493</c:v>
+                  <c:v>0.14955349946806795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14773816787239608</c:v>
+                  <c:v>0.13108095038524775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17754728492983526</c:v>
+                  <c:v>0.12640639607982204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23205206426682939</c:v>
+                  <c:v>0.14200973596827751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35006827624277287</c:v>
+                  <c:v>0.18656307424481769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3986170429123449</c:v>
+                  <c:v>0.22766691382700927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85603881577035934</c:v>
+                  <c:v>0.84283826042103227</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1698480490426799</c:v>
+                  <c:v>1.0198265579161159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0309131584299369</c:v>
+                  <c:v>1.0163448209162127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.755977802957668</c:v>
+                  <c:v>7.3870530964892485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,7 +1875,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1887,7 +1898,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1922,7 +1933,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1979,7 +1990,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1987,46 +1998,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.404034733567556</c:v>
+                  <c:v>55.71913075421476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.235459109266131</c:v>
+                  <c:v>55.716286695852901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.233997674220674</c:v>
+                  <c:v>55.711188010860909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.013468877933761</c:v>
+                  <c:v>55.612390656014746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.288483051946173</c:v>
+                  <c:v>55.394170828306606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.271434597823557</c:v>
+                  <c:v>55.008148494607319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.928756251136306</c:v>
+                  <c:v>53.870118934010868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.024710093666101</c:v>
+                  <c:v>52.406175880511945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.115721335025931</c:v>
+                  <c:v>50.256856579395418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.70115925125949</c:v>
+                  <c:v>46.471562538433759</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.059361638859471</c:v>
+                  <c:v>44.774903095738722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4701384253723315</c:v>
+                  <c:v>8.5190536736438887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2037,7 +2048,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2362,6 +2373,704 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>C Search &amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> C Avg vs Max Children</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6949940439873326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0358522908858478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51390220517737295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27682384729364595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18321276039396844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14907463900752493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14773816787239608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17754728492983526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23205206426682939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35006827624277287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3986170429123449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85603881577035934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1698480490426799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0309131584299369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.755977802957668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="200140560"/>
+        <c:axId val="1829147359"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Avg Dif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.404034733567556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.235459109266131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.233997674220674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.013468877933761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.288483051946173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.271434597823557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.928756251136306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.024710093666101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.115721335025931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.70115925125949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.059361638859471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4701384253723315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830783935"/>
+        <c:axId val="199545920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="200140560"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1829147359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1829147359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200140560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199545920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830783935"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830783935"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199545920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Time</a:t>
             </a:r>
             <a:r>
@@ -3013,7 +3722,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3614,7 +4323,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4298,7 +5007,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5180,6 +5889,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -8792,7 +9541,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7760DA6D-D0CE-054A-9373-C6DA3B7EEEEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8835,7 +10143,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8878,7 +10186,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8919,7 +10227,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9364,7 +10672,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB006D-EF5F-2D4D-86DC-4D6E506A45E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF0CA-7BED-8C47-B9D6-5A56E6D2CDD3}">
   <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9397,7 +10705,7 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>300.08</v>
+        <v>212.91</v>
       </c>
       <c r="C3">
         <v>1.26138969316015</v>
@@ -9423,7 +10731,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>570.48</v>
+        <v>573.04</v>
       </c>
       <c r="C4">
         <v>82.538015905202897</v>
@@ -9433,7 +10741,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1.9010930418555054</v>
+        <v>2.691465877600864</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -9449,7 +10757,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>327.64</v>
+        <v>329.64</v>
       </c>
       <c r="C5">
         <v>82.538015905202897</v>
@@ -9459,7 +10767,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.0918421754198882</v>
+        <v>1.5482598280963786</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -9475,7 +10783,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>178.71</v>
+        <v>178.93</v>
       </c>
       <c r="C6">
         <v>82.538015905202897</v>
@@ -9485,7 +10793,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.59554118901626241</v>
+        <v>0.84040204781363026</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -9501,7 +10809,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>101.18</v>
+        <v>100.53</v>
       </c>
       <c r="C7">
         <v>82.538015905202897</v>
@@ -9511,7 +10819,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.33717675286590248</v>
+        <v>0.47217134000281813</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -9527,7 +10835,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>65.53</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="C8">
         <v>82.538015905202897</v>
@@ -9537,7 +10845,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.21837509997334045</v>
+        <v>0.30576299845004928</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -9553,7 +10861,7 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>46.91</v>
+        <v>47.12</v>
       </c>
       <c r="C9">
         <v>82.538015905202897</v>
@@ -9563,7 +10871,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.1563249800053319</v>
+        <v>0.22131417030670236</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -9579,7 +10887,7 @@
         <v>64</v>
       </c>
       <c r="B10">
-        <v>40.81</v>
+        <v>41.27</v>
       </c>
       <c r="C10">
         <v>82.538015905202897</v>
@@ -9589,7 +10897,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.13599706744868037</v>
+        <v>0.19383777182847214</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -9605,7 +10913,7 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>39.01</v>
+        <v>38.6</v>
       </c>
       <c r="C11">
         <v>82.538015905202897</v>
@@ -9615,7 +10923,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.12999866702212742</v>
+        <v>0.18129726175379268</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -9631,7 +10939,7 @@
         <v>256</v>
       </c>
       <c r="B12">
-        <v>44.01</v>
+        <v>43.84</v>
       </c>
       <c r="C12">
         <v>82.538015905202897</v>
@@ -9641,7 +10949,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.14666089042921887</v>
+        <v>0.20590859987788268</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -9657,7 +10965,7 @@
         <v>512</v>
       </c>
       <c r="B13">
-        <v>58.06</v>
+        <v>58.48</v>
       </c>
       <c r="C13">
         <v>82.538015905202897</v>
@@ -9667,7 +10975,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.19348173820314585</v>
+        <v>0.27467004837724857</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -9683,7 +10991,7 @@
         <v>1024</v>
       </c>
       <c r="B14">
-        <v>71.45</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="C14">
         <v>82.538015905202897</v>
@@ -9693,7 +11001,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.23810317248733673</v>
+        <v>0.33535296604198961</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -9709,7 +11017,7 @@
         <v>2048</v>
       </c>
       <c r="B15">
-        <v>266.75</v>
+        <v>266.06</v>
       </c>
       <c r="C15">
         <v>55.8877226475811</v>
@@ -9719,7 +11027,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.88892961876832854</v>
+        <v>1.2496359964304167</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -9735,7 +11043,7 @@
         <v>4096</v>
       </c>
       <c r="B16">
-        <v>329.04</v>
+        <v>327.55</v>
       </c>
       <c r="C16">
         <v>55.8877226475811</v>
@@ -9745,7 +11053,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.0965075979738739</v>
+        <v>1.5384434737682591</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -9761,7 +11069,7 @@
         <v>8192</v>
       </c>
       <c r="B17">
-        <v>326.8</v>
+        <v>326.83999999999997</v>
       </c>
       <c r="C17">
         <v>55.8877226475811</v>
@@ -9771,7 +11079,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.0890429218874969</v>
+        <v>1.5351087313888496</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -9788,7 +11096,7 @@
         <v>16384</v>
       </c>
       <c r="B18" s="5">
-        <v>2424.0700000000002</v>
+        <v>2422.4499999999998</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -9798,7 +11106,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>8.0780791788856323</v>
+        <v>11.377812221126296</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -9808,6 +11116,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L18" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
@@ -9821,6 +11130,463 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB006D-EF5F-2D4D-86DC-4D6E506A45E0}">
+  <dimension ref="A2:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>300.08</v>
+      </c>
+      <c r="C3">
+        <v>1.26138969316015</v>
+      </c>
+      <c r="D3">
+        <v>6.3556460153053093E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:G18" si="0">B3/B$3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>570.48</v>
+      </c>
+      <c r="C4">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D4">
+        <v>4.7750208213154499</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.9010930418555054</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>75.130377145242406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>327.64</v>
+      </c>
+      <c r="C5">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D5">
+        <v>4.7748688043190102</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.0918421754198882</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>75.12798530346781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>178.71</v>
+      </c>
+      <c r="C6">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D6">
+        <v>4.7743949360507303</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.59554118901626241</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>75.120529440332277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>101.18</v>
+      </c>
+      <c r="C7">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D7">
+        <v>4.7633404026901101</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.33717675286590248</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>74.946596950479957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>65.53</v>
+      </c>
+      <c r="C8">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D8">
+        <v>4.7450944440546898</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.21837509997334045</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>74.659514274832489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>46.91</v>
+      </c>
+      <c r="C9">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D9">
+        <v>4.7261296891179896</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.1563249800053319</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>74.361122028143001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>40.81</v>
+      </c>
+      <c r="C10">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D10">
+        <v>4.6269249721174699</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.13599706744868037</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>72.800230865205037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>39.01</v>
+      </c>
+      <c r="C11">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D11">
+        <v>4.4961755355011501</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.12999866702212742</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>70.743013765614279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <v>44.01</v>
+      </c>
+      <c r="C12">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D12">
+        <v>4.3229039153806301</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.14666089042921887</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>68.016750853814955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13">
+        <v>58.06</v>
+      </c>
+      <c r="C13">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D13">
+        <v>3.9709285093170301</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.19348173820314585</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>62.47875510616015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1024</v>
+      </c>
+      <c r="B14">
+        <v>71.45</v>
+      </c>
+      <c r="C14">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D14">
+        <v>3.8307054769999902</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.23810317248733673</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>60.272480055923516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2048</v>
+      </c>
+      <c r="B15">
+        <v>266.75</v>
+      </c>
+      <c r="C15">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D15">
+        <v>0.710278693960533</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.88892961876832854</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>11.175554652510222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4096</v>
+      </c>
+      <c r="B16">
+        <v>329.04</v>
+      </c>
+      <c r="C16">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D16">
+        <v>0.61276051304034596</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.0965075979738739</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>9.6411995187386239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8192</v>
+      </c>
+      <c r="B17">
+        <v>326.8</v>
+      </c>
+      <c r="C17">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.61276051304034596</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.0890429218874969</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>9.6411995187386239</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16384</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2424.0700000000002</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8.0780791788856323</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B18">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B42892-40D1-4548-A56D-9001ACB7B0BC}">
   <dimension ref="A2:I18"/>
   <sheetViews>
@@ -10293,7 +12059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC69C5D9-B88F-FF4D-BBBE-0229262C4A41}">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -10770,7 +12536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393E3666-8983-354A-B652-1578FACF0E70}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -11231,7 +12997,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310253C2-5867-A04F-B696-06BC56F172E8}">
   <dimension ref="A1:U17"/>
   <sheetViews>

--- a/Benchmark/Compare.xlsx
+++ b/Benchmark/Compare.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxofyellow/Projects/Ascii3dEngine/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173693A0-7737-714F-8B09-B8A4FC32072B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C773226-4A05-6141-9260-6EFE5CB9855C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{DB605785-6E2F-D842-AA87-F2BDEE7FB0D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Benchmark-SplitBy4" sheetId="6" r:id="rId1"/>
-    <sheet name="Benchmark-IgnoreBackground" sheetId="5" r:id="rId2"/>
-    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId3"/>
-    <sheet name="Benchmark-1" sheetId="3" r:id="rId4"/>
-    <sheet name="Benchmark-0" sheetId="2" r:id="rId5"/>
-    <sheet name="Org - stop watch" sheetId="1" r:id="rId6"/>
+    <sheet name="Benchmark-IgnoreForeground" sheetId="7" r:id="rId1"/>
+    <sheet name="Benchmark-SplitBy4" sheetId="6" r:id="rId2"/>
+    <sheet name="Benchmark-IgnoreBackground" sheetId="5" r:id="rId3"/>
+    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId4"/>
+    <sheet name="Benchmark-1" sheetId="3" r:id="rId5"/>
+    <sheet name="Benchmark-0" sheetId="2" r:id="rId6"/>
+    <sheet name="Org - stop watch" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
   <si>
     <t>max Children</t>
   </si>
@@ -150,7 +151,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -329,7 +340,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-SplitBy4'!$E$2</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -364,7 +375,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -421,7 +432,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -429,49 +440,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.691465877600864</c:v>
+                  <c:v>3.0032623101233558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5482598280963786</c:v>
+                  <c:v>1.7332042002242836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84040204781363026</c:v>
+                  <c:v>0.9395962891222347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47217134000281813</c:v>
+                  <c:v>0.54149250688143546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30576299845004928</c:v>
+                  <c:v>0.34366398205729431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22131417030670236</c:v>
+                  <c:v>0.24701804465286981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19383777182847214</c:v>
+                  <c:v>0.21653583443776123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18129726175379268</c:v>
+                  <c:v>0.20114180854317462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20590859987788268</c:v>
+                  <c:v>0.2340707513508003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27467004837724857</c:v>
+                  <c:v>0.31420124375573449</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33535296604198961</c:v>
+                  <c:v>0.374044245081048</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2496359964304167</c:v>
+                  <c:v>1.396472627179121</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5384434737682591</c:v>
+                  <c:v>1.7095014782342746</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5351087313888496</c:v>
+                  <c:v>1.7233662962585379</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.377812221126296</c:v>
+                  <c:v>12.368997859108982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -479,7 +490,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB93-F54A-AE72-567299124932}"/>
+              <c16:uniqueId val="{00000000-E670-C045-87BB-547FEB129655}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -502,7 +513,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-SplitBy4'!$G$2</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -537,7 +548,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -594,7 +605,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -652,7 +663,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB93-F54A-AE72-567299124932}"/>
+              <c16:uniqueId val="{00000001-E670-C045-87BB-547FEB129655}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1027,7 +1038,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreBackground'!$E$2</c:f>
+              <c:f>'Benchmark-SplitBy4'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1062,7 +1073,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1119,7 +1130,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1127,49 +1138,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9010930418555054</c:v>
+                  <c:v>2.691465877600864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0918421754198882</c:v>
+                  <c:v>1.5482598280963786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59554118901626241</c:v>
+                  <c:v>0.84040204781363026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33717675286590248</c:v>
+                  <c:v>0.47217134000281813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21837509997334045</c:v>
+                  <c:v>0.30576299845004928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1563249800053319</c:v>
+                  <c:v>0.22131417030670236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13599706744868037</c:v>
+                  <c:v>0.19383777182847214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12999866702212742</c:v>
+                  <c:v>0.18129726175379268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14666089042921887</c:v>
+                  <c:v>0.20590859987788268</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19348173820314585</c:v>
+                  <c:v>0.27467004837724857</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23810317248733673</c:v>
+                  <c:v>0.33535296604198961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88892961876832854</c:v>
+                  <c:v>1.2496359964304167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0965075979738739</c:v>
+                  <c:v>1.5384434737682591</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0890429218874969</c:v>
+                  <c:v>1.5351087313888496</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.0780791788856323</c:v>
+                  <c:v>11.377812221126296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1177,7 +1188,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0279-4742-B2B7-DEBAB787DE3C}"/>
+              <c16:uniqueId val="{00000000-FB93-F54A-AE72-567299124932}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1200,7 +1211,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreBackground'!$G$2</c:f>
+              <c:f>'Benchmark-SplitBy4'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1235,7 +1246,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1292,7 +1303,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1350,7 +1361,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0279-4742-B2B7-DEBAB787DE3C}"/>
+              <c16:uniqueId val="{00000001-FB93-F54A-AE72-567299124932}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1725,7 +1736,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1760,7 +1771,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1817,7 +1828,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1825,49 +1836,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6420580934266096</c:v>
+                  <c:v>1.9010930418555054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0205680389438732</c:v>
+                  <c:v>1.0918421754198882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57264902156742636</c:v>
+                  <c:v>0.59554118901626241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32580031593539444</c:v>
+                  <c:v>0.33717675286590248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20319803991102228</c:v>
+                  <c:v>0.21837509997334045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14955349946806795</c:v>
+                  <c:v>0.1563249800053319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13108095038524775</c:v>
+                  <c:v>0.13599706744868037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12640639607982204</c:v>
+                  <c:v>0.12999866702212742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14200973596827751</c:v>
+                  <c:v>0.14666089042921887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18656307424481769</c:v>
+                  <c:v>0.19348173820314585</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22766691382700927</c:v>
+                  <c:v>0.23810317248733673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84283826042103227</c:v>
+                  <c:v>0.88892961876832854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0198265579161159</c:v>
+                  <c:v>1.0965075979738739</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0163448209162127</c:v>
+                  <c:v>1.0890429218874969</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3870530964892485</c:v>
+                  <c:v>8.0780791788856323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,7 +1886,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
+              <c16:uniqueId val="{00000000-0279-4742-B2B7-DEBAB787DE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1898,7 +1909,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1933,7 +1944,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1990,7 +2001,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1998,46 +2009,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.71913075421476</c:v>
+                  <c:v>75.130377145242406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.716286695852901</c:v>
+                  <c:v>75.12798530346781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.711188010860909</c:v>
+                  <c:v>75.120529440332277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.612390656014746</c:v>
+                  <c:v>74.946596950479957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.394170828306606</c:v>
+                  <c:v>74.659514274832489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.008148494607319</c:v>
+                  <c:v>74.361122028143001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.870118934010868</c:v>
+                  <c:v>72.800230865205037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.406175880511945</c:v>
+                  <c:v>70.743013765614279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.256856579395418</c:v>
+                  <c:v>68.016750853814955</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.471562538433759</c:v>
+                  <c:v>62.47875510616015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.774903095738722</c:v>
+                  <c:v>60.272480055923516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5190536736438887</c:v>
+                  <c:v>11.175554652510222</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3922938619277323</c:v>
+                  <c:v>9.6411995187386239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3922938619277323</c:v>
+                  <c:v>9.6411995187386239</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2048,7 +2059,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
+              <c16:uniqueId val="{00000001-0279-4742-B2B7-DEBAB787DE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2423,7 +2434,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2458,7 +2469,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2515,7 +2526,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2523,49 +2534,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6949940439873326</c:v>
+                  <c:v>1.6420580934266096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0358522908858478</c:v>
+                  <c:v>1.0205680389438732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51390220517737295</c:v>
+                  <c:v>0.57264902156742636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27682384729364595</c:v>
+                  <c:v>0.32580031593539444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18321276039396844</c:v>
+                  <c:v>0.20319803991102228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14907463900752493</c:v>
+                  <c:v>0.14955349946806795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14773816787239608</c:v>
+                  <c:v>0.13108095038524775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17754728492983526</c:v>
+                  <c:v>0.12640639607982204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23205206426682939</c:v>
+                  <c:v>0.14200973596827751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35006827624277287</c:v>
+                  <c:v>0.18656307424481769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3986170429123449</c:v>
+                  <c:v>0.22766691382700927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85603881577035934</c:v>
+                  <c:v>0.84283826042103227</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1698480490426799</c:v>
+                  <c:v>1.0198265579161159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0309131584299369</c:v>
+                  <c:v>1.0163448209162127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.755977802957668</c:v>
+                  <c:v>7.3870530964892485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,7 +2584,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2596,7 +2607,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2631,7 +2642,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2688,7 +2699,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2696,46 +2707,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.404034733567556</c:v>
+                  <c:v>55.71913075421476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.235459109266131</c:v>
+                  <c:v>55.716286695852901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.233997674220674</c:v>
+                  <c:v>55.711188010860909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.013468877933761</c:v>
+                  <c:v>55.612390656014746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.288483051946173</c:v>
+                  <c:v>55.394170828306606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.271434597823557</c:v>
+                  <c:v>55.008148494607319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.928756251136306</c:v>
+                  <c:v>53.870118934010868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.024710093666101</c:v>
+                  <c:v>52.406175880511945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.115721335025931</c:v>
+                  <c:v>50.256856579395418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.70115925125949</c:v>
+                  <c:v>46.471562538433759</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.059361638859471</c:v>
+                  <c:v>44.774903095738722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4701384253723315</c:v>
+                  <c:v>8.5190536736438887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2746,7 +2757,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3071,6 +3082,704 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>C Search &amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> C Avg vs Max Children</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6949940439873326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0358522908858478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51390220517737295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27682384729364595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18321276039396844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14907463900752493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14773816787239608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17754728492983526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23205206426682939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35006827624277287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3986170429123449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85603881577035934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1698480490426799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0309131584299369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.755977802957668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="200140560"/>
+        <c:axId val="1829147359"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Avg Dif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.404034733567556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.235459109266131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.233997674220674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.013468877933761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.288483051946173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.271434597823557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.928756251136306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.024710093666101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.115721335025931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.70115925125949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.059361638859471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4701384253723315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830783935"/>
+        <c:axId val="199545920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="200140560"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1829147359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1829147359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200140560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199545920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830783935"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830783935"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199545920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Time</a:t>
             </a:r>
             <a:r>
@@ -3722,7 +4431,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4323,7 +5032,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5007,7 +5716,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5929,6 +6638,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10057,7 +10806,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F41FEA7-ABD5-9448-9EE2-E0D506C247EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10100,7 +11408,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10143,7 +11451,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10186,7 +11494,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10227,7 +11535,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10672,8 +11980,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF0CA-7BED-8C47-B9D6-5A56E6D2CDD3}">
-  <dimension ref="A2:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2347A84-B413-504A-AB33-5D33B723CAFE}">
+  <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -10705,7 +12013,7 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>212.91</v>
+        <v>196.18</v>
       </c>
       <c r="C3">
         <v>1.26138969316015</v>
@@ -10731,7 +12039,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>573.04</v>
+        <v>589.17999999999995</v>
       </c>
       <c r="C4">
         <v>82.538015905202897</v>
@@ -10741,7 +12049,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>2.691465877600864</v>
+        <v>3.0032623101233558</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -10757,7 +12065,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>329.64</v>
+        <v>340.02</v>
       </c>
       <c r="C5">
         <v>82.538015905202897</v>
@@ -10767,7 +12075,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.5482598280963786</v>
+        <v>1.7332042002242836</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -10783,7 +12091,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>178.93</v>
+        <v>184.33</v>
       </c>
       <c r="C6">
         <v>82.538015905202897</v>
@@ -10793,7 +12101,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.84040204781363026</v>
+        <v>0.9395962891222347</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -10809,7 +12117,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>100.53</v>
+        <v>106.23</v>
       </c>
       <c r="C7">
         <v>82.538015905202897</v>
@@ -10819,7 +12127,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.47217134000281813</v>
+        <v>0.54149250688143546</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -10835,7 +12143,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>65.099999999999994</v>
+        <v>67.42</v>
       </c>
       <c r="C8">
         <v>82.538015905202897</v>
@@ -10845,7 +12153,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.30576299845004928</v>
+        <v>0.34366398205729431</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -10861,7 +12169,7 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>47.12</v>
+        <v>48.46</v>
       </c>
       <c r="C9">
         <v>82.538015905202897</v>
@@ -10871,7 +12179,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.22131417030670236</v>
+        <v>0.24701804465286981</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -10887,7 +12195,7 @@
         <v>64</v>
       </c>
       <c r="B10">
-        <v>41.27</v>
+        <v>42.48</v>
       </c>
       <c r="C10">
         <v>82.538015905202897</v>
@@ -10897,7 +12205,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.19383777182847214</v>
+        <v>0.21653583443776123</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -10913,7 +12221,7 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>38.6</v>
+        <v>39.46</v>
       </c>
       <c r="C11">
         <v>82.538015905202897</v>
@@ -10923,7 +12231,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.18129726175379268</v>
+        <v>0.20114180854317462</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -10939,7 +12247,7 @@
         <v>256</v>
       </c>
       <c r="B12">
-        <v>43.84</v>
+        <v>45.92</v>
       </c>
       <c r="C12">
         <v>82.538015905202897</v>
@@ -10949,7 +12257,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.20590859987788268</v>
+        <v>0.2340707513508003</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -10965,7 +12273,7 @@
         <v>512</v>
       </c>
       <c r="B13">
-        <v>58.48</v>
+        <v>61.64</v>
       </c>
       <c r="C13">
         <v>82.538015905202897</v>
@@ -10975,7 +12283,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.27467004837724857</v>
+        <v>0.31420124375573449</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -10991,7 +12299,7 @@
         <v>1024</v>
       </c>
       <c r="B14">
-        <v>71.400000000000006</v>
+        <v>73.38</v>
       </c>
       <c r="C14">
         <v>82.538015905202897</v>
@@ -11001,7 +12309,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.33535296604198961</v>
+        <v>0.374044245081048</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -11017,7 +12325,7 @@
         <v>2048</v>
       </c>
       <c r="B15">
-        <v>266.06</v>
+        <v>273.95999999999998</v>
       </c>
       <c r="C15">
         <v>55.8877226475811</v>
@@ -11027,7 +12335,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.2496359964304167</v>
+        <v>1.396472627179121</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -11043,7 +12351,7 @@
         <v>4096</v>
       </c>
       <c r="B16">
-        <v>327.55</v>
+        <v>335.37</v>
       </c>
       <c r="C16">
         <v>55.8877226475811</v>
@@ -11053,7 +12361,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.5384434737682591</v>
+        <v>1.7095014782342746</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -11064,12 +12372,12 @@
         <v>9.6411995187386239</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8192</v>
       </c>
       <c r="B17">
-        <v>326.83999999999997</v>
+        <v>338.09</v>
       </c>
       <c r="C17">
         <v>55.8877226475811</v>
@@ -11079,7 +12387,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.5351087313888496</v>
+        <v>1.7233662962585379</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -11091,12 +12399,12 @@
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16384</v>
       </c>
       <c r="B18" s="5">
-        <v>2422.4499999999998</v>
+        <v>2426.5500000000002</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -11106,7 +12414,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>11.377812221126296</v>
+        <v>12.368997859108982</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -11117,6 +12425,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="5"/>
+      <c r="R18" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
@@ -11130,6 +12439,464 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF0CA-7BED-8C47-B9D6-5A56E6D2CDD3}">
+  <dimension ref="A2:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>212.91</v>
+      </c>
+      <c r="C3">
+        <v>1.26138969316015</v>
+      </c>
+      <c r="D3">
+        <v>6.3556460153053093E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:G18" si="0">B3/B$3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>573.04</v>
+      </c>
+      <c r="C4">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D4">
+        <v>4.7750208213154499</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.691465877600864</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>75.130377145242406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>329.64</v>
+      </c>
+      <c r="C5">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D5">
+        <v>4.7748688043190102</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.5482598280963786</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>75.12798530346781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>178.93</v>
+      </c>
+      <c r="C6">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D6">
+        <v>4.7743949360507303</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.84040204781363026</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>75.120529440332277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>100.53</v>
+      </c>
+      <c r="C7">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D7">
+        <v>4.7633404026901101</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.47217134000281813</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>74.946596950479957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="C8">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D8">
+        <v>4.7450944440546898</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.30576299845004928</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>74.659514274832489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>47.12</v>
+      </c>
+      <c r="C9">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D9">
+        <v>4.7261296891179896</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.22131417030670236</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>74.361122028143001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>41.27</v>
+      </c>
+      <c r="C10">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D10">
+        <v>4.6269249721174699</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.19383777182847214</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>72.800230865205037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>38.6</v>
+      </c>
+      <c r="C11">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D11">
+        <v>4.4961755355011501</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.18129726175379268</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>70.743013765614279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <v>43.84</v>
+      </c>
+      <c r="C12">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D12">
+        <v>4.3229039153806301</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.20590859987788268</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>68.016750853814955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13">
+        <v>58.48</v>
+      </c>
+      <c r="C13">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D13">
+        <v>3.9709285093170301</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.27467004837724857</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>62.47875510616015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1024</v>
+      </c>
+      <c r="B14">
+        <v>71.400000000000006</v>
+      </c>
+      <c r="C14">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D14">
+        <v>3.8307054769999902</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.33535296604198961</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>60.272480055923516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2048</v>
+      </c>
+      <c r="B15">
+        <v>266.06</v>
+      </c>
+      <c r="C15">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D15">
+        <v>0.710278693960533</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.2496359964304167</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>11.175554652510222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4096</v>
+      </c>
+      <c r="B16">
+        <v>327.55</v>
+      </c>
+      <c r="C16">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D16">
+        <v>0.61276051304034596</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.5384434737682591</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>9.6411995187386239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8192</v>
+      </c>
+      <c r="B17">
+        <v>326.83999999999997</v>
+      </c>
+      <c r="C17">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.61276051304034596</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.5351087313888496</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>9.6411995187386239</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16384</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2422.4499999999998</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>11.377812221126296</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B18">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB006D-EF5F-2D4D-86DC-4D6E506A45E0}">
   <dimension ref="A2:L18"/>
   <sheetViews>
@@ -11586,7 +13353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B42892-40D1-4548-A56D-9001ACB7B0BC}">
   <dimension ref="A2:I18"/>
   <sheetViews>
@@ -12059,7 +13826,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC69C5D9-B88F-FF4D-BBBE-0229262C4A41}">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -12536,7 +14303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393E3666-8983-354A-B652-1578FACF0E70}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -12997,7 +14764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310253C2-5867-A04F-B696-06BC56F172E8}">
   <dimension ref="A1:U17"/>
   <sheetViews>

--- a/Benchmark/Compare.xlsx
+++ b/Benchmark/Compare.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxofyellow/Projects/Ascii3dEngine/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C773226-4A05-6141-9260-6EFE5CB9855C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68FA88F-55D2-714E-9B2B-8358794E1DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{DB605785-6E2F-D842-AA87-F2BDEE7FB0D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Benchmark-IgnoreForeground" sheetId="7" r:id="rId1"/>
-    <sheet name="Benchmark-SplitBy4" sheetId="6" r:id="rId2"/>
-    <sheet name="Benchmark-IgnoreBackground" sheetId="5" r:id="rId3"/>
-    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId4"/>
-    <sheet name="Benchmark-1" sheetId="3" r:id="rId5"/>
-    <sheet name="Benchmark-0" sheetId="2" r:id="rId6"/>
-    <sheet name="Org - stop watch" sheetId="1" r:id="rId7"/>
+    <sheet name="Benchmark-net5.0" sheetId="8" r:id="rId1"/>
+    <sheet name="Benchmark-IgnoreForeground" sheetId="7" r:id="rId2"/>
+    <sheet name="Benchmark-SplitBy4" sheetId="6" r:id="rId3"/>
+    <sheet name="Benchmark-IgnoreBackground" sheetId="5" r:id="rId4"/>
+    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId5"/>
+    <sheet name="Benchmark-1" sheetId="3" r:id="rId6"/>
+    <sheet name="Benchmark-0" sheetId="2" r:id="rId7"/>
+    <sheet name="Org - stop watch" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
   <si>
     <t>max Children</t>
   </si>
@@ -151,7 +152,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -340,7 +351,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreForeground'!$E$2</c:f>
+              <c:f>'Benchmark-net5.0'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -375,7 +386,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-net5.0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -432,7 +443,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreForeground'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-net5.0'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -440,49 +451,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0032623101233558</c:v>
+                  <c:v>2.9345955249569706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7332042002242836</c:v>
+                  <c:v>1.6791842695457153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9395962891222347</c:v>
+                  <c:v>0.91738382099827875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54149250688143546</c:v>
+                  <c:v>0.51661190215407082</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34366398205729431</c:v>
+                  <c:v>0.32863923225369007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24701804465286981</c:v>
+                  <c:v>0.23527877744745215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21653583443776123</c:v>
+                  <c:v>0.20680123089761646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20114180854317462</c:v>
+                  <c:v>0.19861263234757212</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2340707513508003</c:v>
+                  <c:v>0.22072706410055809</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31420124375573449</c:v>
+                  <c:v>0.29108642361654413</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.374044245081048</c:v>
+                  <c:v>0.3600375528086372</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.396472627179121</c:v>
+                  <c:v>1.3266572784645074</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7095014782342746</c:v>
+                  <c:v>1.6669274500599804</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7233662962585379</c:v>
+                  <c:v>1.6625984457309759</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.368997859108982</c:v>
+                  <c:v>11.816564961143277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -490,7 +501,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E670-C045-87BB-547FEB129655}"/>
+              <c16:uniqueId val="{00000000-7FC7-A24B-881D-C6E293CBB425}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -513,7 +524,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreForeground'!$G$2</c:f>
+              <c:f>'Benchmark-net5.0'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -548,7 +559,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-net5.0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -605,7 +616,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreForeground'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-net5.0'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -663,7 +674,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E670-C045-87BB-547FEB129655}"/>
+              <c16:uniqueId val="{00000001-7FC7-A24B-881D-C6E293CBB425}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -953,6 +964,608 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Compare Max of Compare Search and Avg</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Org - stop watch'!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CC Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Org - stop watch'!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Org - stop watch'!$R$2:$R$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>0.18627014901635672</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11767066450451798</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0055392582303075E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6823570209024492E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3941874234107988E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0779359048197214E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9418110398743083E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2364656982293282E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0800229636499251E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.6679792773046756E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3649925449934042E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1101703731052202</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.13312376551086966</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.13372694721520231</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A62-D941-95A7-D4AB93A55045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Org - stop watch'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CC Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Org - stop watch'!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Org - stop watch'!$U$2:$U$16</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99827248659719092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99825790980455675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.98597738575395966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.92780020066078672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.91736550529255123</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.90384461062203769</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.82334693732777497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.64139619522163582</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43453800295185535</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.34650246852707939</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.6029278519196594E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.8190937360953676E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8190937360953676E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4A62-D941-95A7-D4AB93A55045}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="981731120"/>
+        <c:axId val="982121728"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="981731120"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="982121728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="982121728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="981731120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1038,7 +1651,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-SplitBy4'!$E$2</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1073,7 +1686,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1130,7 +1743,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1138,49 +1751,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.691465877600864</c:v>
+                  <c:v>3.0032623101233558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5482598280963786</c:v>
+                  <c:v>1.7332042002242836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84040204781363026</c:v>
+                  <c:v>0.9395962891222347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47217134000281813</c:v>
+                  <c:v>0.54149250688143546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30576299845004928</c:v>
+                  <c:v>0.34366398205729431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22131417030670236</c:v>
+                  <c:v>0.24701804465286981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19383777182847214</c:v>
+                  <c:v>0.21653583443776123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18129726175379268</c:v>
+                  <c:v>0.20114180854317462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20590859987788268</c:v>
+                  <c:v>0.2340707513508003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27467004837724857</c:v>
+                  <c:v>0.31420124375573449</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33535296604198961</c:v>
+                  <c:v>0.374044245081048</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2496359964304167</c:v>
+                  <c:v>1.396472627179121</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5384434737682591</c:v>
+                  <c:v>1.7095014782342746</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5351087313888496</c:v>
+                  <c:v>1.7233662962585379</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.377812221126296</c:v>
+                  <c:v>12.368997859108982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1188,7 +1801,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB93-F54A-AE72-567299124932}"/>
+              <c16:uniqueId val="{00000000-E670-C045-87BB-547FEB129655}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1211,7 +1824,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-SplitBy4'!$G$2</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1246,7 +1859,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1303,7 +1916,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1361,7 +1974,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB93-F54A-AE72-567299124932}"/>
+              <c16:uniqueId val="{00000001-E670-C045-87BB-547FEB129655}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1736,7 +2349,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreBackground'!$E$2</c:f>
+              <c:f>'Benchmark-SplitBy4'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1771,7 +2384,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1828,7 +2441,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1836,49 +2449,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9010930418555054</c:v>
+                  <c:v>2.691465877600864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0918421754198882</c:v>
+                  <c:v>1.5482598280963786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59554118901626241</c:v>
+                  <c:v>0.84040204781363026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33717675286590248</c:v>
+                  <c:v>0.47217134000281813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21837509997334045</c:v>
+                  <c:v>0.30576299845004928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1563249800053319</c:v>
+                  <c:v>0.22131417030670236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13599706744868037</c:v>
+                  <c:v>0.19383777182847214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12999866702212742</c:v>
+                  <c:v>0.18129726175379268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14666089042921887</c:v>
+                  <c:v>0.20590859987788268</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19348173820314585</c:v>
+                  <c:v>0.27467004837724857</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23810317248733673</c:v>
+                  <c:v>0.33535296604198961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88892961876832854</c:v>
+                  <c:v>1.2496359964304167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0965075979738739</c:v>
+                  <c:v>1.5384434737682591</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0890429218874969</c:v>
+                  <c:v>1.5351087313888496</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.0780791788856323</c:v>
+                  <c:v>11.377812221126296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1886,7 +2499,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0279-4742-B2B7-DEBAB787DE3C}"/>
+              <c16:uniqueId val="{00000000-FB93-F54A-AE72-567299124932}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1909,7 +2522,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreBackground'!$G$2</c:f>
+              <c:f>'Benchmark-SplitBy4'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1944,7 +2557,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2001,7 +2614,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2059,7 +2672,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0279-4742-B2B7-DEBAB787DE3C}"/>
+              <c16:uniqueId val="{00000001-FB93-F54A-AE72-567299124932}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2434,7 +3047,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2469,7 +3082,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2526,7 +3139,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2534,49 +3147,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6420580934266096</c:v>
+                  <c:v>1.9010930418555054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0205680389438732</c:v>
+                  <c:v>1.0918421754198882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57264902156742636</c:v>
+                  <c:v>0.59554118901626241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32580031593539444</c:v>
+                  <c:v>0.33717675286590248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20319803991102228</c:v>
+                  <c:v>0.21837509997334045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14955349946806795</c:v>
+                  <c:v>0.1563249800053319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13108095038524775</c:v>
+                  <c:v>0.13599706744868037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12640639607982204</c:v>
+                  <c:v>0.12999866702212742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14200973596827751</c:v>
+                  <c:v>0.14666089042921887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18656307424481769</c:v>
+                  <c:v>0.19348173820314585</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22766691382700927</c:v>
+                  <c:v>0.23810317248733673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84283826042103227</c:v>
+                  <c:v>0.88892961876832854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0198265579161159</c:v>
+                  <c:v>1.0965075979738739</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0163448209162127</c:v>
+                  <c:v>1.0890429218874969</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3870530964892485</c:v>
+                  <c:v>8.0780791788856323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2584,7 +3197,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
+              <c16:uniqueId val="{00000000-0279-4742-B2B7-DEBAB787DE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2607,7 +3220,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2642,7 +3255,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2699,7 +3312,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2707,46 +3320,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.71913075421476</c:v>
+                  <c:v>75.130377145242406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.716286695852901</c:v>
+                  <c:v>75.12798530346781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.711188010860909</c:v>
+                  <c:v>75.120529440332277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.612390656014746</c:v>
+                  <c:v>74.946596950479957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.394170828306606</c:v>
+                  <c:v>74.659514274832489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.008148494607319</c:v>
+                  <c:v>74.361122028143001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.870118934010868</c:v>
+                  <c:v>72.800230865205037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.406175880511945</c:v>
+                  <c:v>70.743013765614279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.256856579395418</c:v>
+                  <c:v>68.016750853814955</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.471562538433759</c:v>
+                  <c:v>62.47875510616015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.774903095738722</c:v>
+                  <c:v>60.272480055923516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5190536736438887</c:v>
+                  <c:v>11.175554652510222</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3922938619277323</c:v>
+                  <c:v>9.6411995187386239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3922938619277323</c:v>
+                  <c:v>9.6411995187386239</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -2757,7 +3370,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
+              <c16:uniqueId val="{00000001-0279-4742-B2B7-DEBAB787DE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3132,7 +3745,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3167,7 +3780,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3224,7 +3837,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3232,49 +3845,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6949940439873326</c:v>
+                  <c:v>1.6420580934266096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0358522908858478</c:v>
+                  <c:v>1.0205680389438732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51390220517737295</c:v>
+                  <c:v>0.57264902156742636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27682384729364595</c:v>
+                  <c:v>0.32580031593539444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18321276039396844</c:v>
+                  <c:v>0.20319803991102228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14907463900752493</c:v>
+                  <c:v>0.14955349946806795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14773816787239608</c:v>
+                  <c:v>0.13108095038524775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17754728492983526</c:v>
+                  <c:v>0.12640639607982204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23205206426682939</c:v>
+                  <c:v>0.14200973596827751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35006827624277287</c:v>
+                  <c:v>0.18656307424481769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3986170429123449</c:v>
+                  <c:v>0.22766691382700927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85603881577035934</c:v>
+                  <c:v>0.84283826042103227</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1698480490426799</c:v>
+                  <c:v>1.0198265579161159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0309131584299369</c:v>
+                  <c:v>1.0163448209162127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.755977802957668</c:v>
+                  <c:v>7.3870530964892485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3282,7 +3895,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3305,7 +3918,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3340,7 +3953,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3397,7 +4010,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3405,46 +4018,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.404034733567556</c:v>
+                  <c:v>55.71913075421476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.235459109266131</c:v>
+                  <c:v>55.716286695852901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.233997674220674</c:v>
+                  <c:v>55.711188010860909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.013468877933761</c:v>
+                  <c:v>55.612390656014746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.288483051946173</c:v>
+                  <c:v>55.394170828306606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.271434597823557</c:v>
+                  <c:v>55.008148494607319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.928756251136306</c:v>
+                  <c:v>53.870118934010868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.024710093666101</c:v>
+                  <c:v>52.406175880511945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.115721335025931</c:v>
+                  <c:v>50.256856579395418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.70115925125949</c:v>
+                  <c:v>46.471562538433759</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.059361638859471</c:v>
+                  <c:v>44.774903095738722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4701384253723315</c:v>
+                  <c:v>8.5190536736438887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -3455,7 +4068,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3780,6 +4393,704 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>C Search &amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> C Avg vs Max Children</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6949940439873326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0358522908858478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51390220517737295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27682384729364595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18321276039396844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14907463900752493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14773816787239608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17754728492983526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23205206426682939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35006827624277287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3986170429123449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85603881577035934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1698480490426799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0309131584299369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.755977802957668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="200140560"/>
+        <c:axId val="1829147359"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Avg Dif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.404034733567556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.235459109266131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.233997674220674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.013468877933761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.288483051946173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.271434597823557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.928756251136306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.024710093666101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.115721335025931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.70115925125949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.059361638859471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4701384253723315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830783935"/>
+        <c:axId val="199545920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="200140560"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1829147359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1829147359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200140560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199545920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830783935"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830783935"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199545920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Time</a:t>
             </a:r>
             <a:r>
@@ -4431,7 +5742,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5032,7 +6343,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5716,609 +7027,47 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Compare Max of Compare Search and Avg</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Org - stop watch'!$R$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CC Search</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Org - stop watch'!$H$2:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Org - stop watch'!$R$2:$R$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>0.18627014901635672</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.11767066450451798</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0055392582303075E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.6823570209024492E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.3941874234107988E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0779359048197214E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.9418110398743083E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2364656982293282E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.0800229636499251E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.6679792773046756E-2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.3649925449934042E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.1101703731052202</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.13312376551086966</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.13372694721520231</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A62-D941-95A7-D4AB93A55045}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Org - stop watch'!$U$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CC Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Org - stop watch'!$H$2:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Org - stop watch'!$U$2:$U$16</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.99827248659719092</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.99825790980455675</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.98597738575395966</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.92780020066078672</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.91736550529255123</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.90384461062203769</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.82334693732777497</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.64139619522163582</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.43453800295185535</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.34650246852707939</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.6029278519196594E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.8190937360953676E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8190937360953676E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4A62-D941-95A7-D4AB93A55045}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="981731120"/>
-        <c:axId val="982121728"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="981731120"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="10000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="982121728"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="982121728"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="981731120"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7194,7 +7943,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -7710,7 +8459,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8226,7 +8975,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8742,7 +9491,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9258,7 +10007,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9774,7 +10523,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10290,7 +11039,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10806,7 +11555,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11322,7 +12071,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594B1132-4B0F-6C4E-A755-285713B2522C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11365,7 +12673,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11408,7 +12716,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11451,7 +12759,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11494,7 +12802,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11535,7 +12843,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11980,10 +13288,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2347A84-B413-504A-AB33-5D33B723CAFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308CD095-D742-D342-9536-BC68A63C79E7}">
   <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -12013,7 +13323,7 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>196.18</v>
+        <v>191.73</v>
       </c>
       <c r="C3">
         <v>1.26138969316015</v>
@@ -12039,7 +13349,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>589.17999999999995</v>
+        <v>562.65</v>
       </c>
       <c r="C4">
         <v>82.538015905202897</v>
@@ -12049,7 +13359,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>3.0032623101233558</v>
+        <v>2.9345955249569706</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -12065,7 +13375,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>340.02</v>
+        <v>321.95</v>
       </c>
       <c r="C5">
         <v>82.538015905202897</v>
@@ -12075,7 +13385,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.7332042002242836</v>
+        <v>1.6791842695457153</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -12091,7 +13401,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>184.33</v>
+        <v>175.89</v>
       </c>
       <c r="C6">
         <v>82.538015905202897</v>
@@ -12101,7 +13411,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.9395962891222347</v>
+        <v>0.91738382099827875</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -12117,7 +13427,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>106.23</v>
+        <v>99.05</v>
       </c>
       <c r="C7">
         <v>82.538015905202897</v>
@@ -12127,7 +13437,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.54149250688143546</v>
+        <v>0.51661190215407082</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -12143,7 +13453,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>67.42</v>
+        <v>63.01</v>
       </c>
       <c r="C8">
         <v>82.538015905202897</v>
@@ -12153,7 +13463,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.34366398205729431</v>
+        <v>0.32863923225369007</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -12169,7 +13479,7 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>48.46</v>
+        <v>45.11</v>
       </c>
       <c r="C9">
         <v>82.538015905202897</v>
@@ -12179,7 +13489,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.24701804465286981</v>
+        <v>0.23527877744745215</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -12195,7 +13505,7 @@
         <v>64</v>
       </c>
       <c r="B10">
-        <v>42.48</v>
+        <v>39.65</v>
       </c>
       <c r="C10">
         <v>82.538015905202897</v>
@@ -12205,7 +13515,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.21653583443776123</v>
+        <v>0.20680123089761646</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -12221,7 +13531,7 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>39.46</v>
+        <v>38.08</v>
       </c>
       <c r="C11">
         <v>82.538015905202897</v>
@@ -12231,7 +13541,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.20114180854317462</v>
+        <v>0.19861263234757212</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -12247,7 +13557,7 @@
         <v>256</v>
       </c>
       <c r="B12">
-        <v>45.92</v>
+        <v>42.32</v>
       </c>
       <c r="C12">
         <v>82.538015905202897</v>
@@ -12257,7 +13567,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.2340707513508003</v>
+        <v>0.22072706410055809</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -12273,7 +13583,7 @@
         <v>512</v>
       </c>
       <c r="B13">
-        <v>61.64</v>
+        <v>55.81</v>
       </c>
       <c r="C13">
         <v>82.538015905202897</v>
@@ -12283,7 +13593,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.31420124375573449</v>
+        <v>0.29108642361654413</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -12299,7 +13609,7 @@
         <v>1024</v>
       </c>
       <c r="B14">
-        <v>73.38</v>
+        <v>69.03</v>
       </c>
       <c r="C14">
         <v>82.538015905202897</v>
@@ -12309,7 +13619,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.374044245081048</v>
+        <v>0.3600375528086372</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -12325,7 +13635,7 @@
         <v>2048</v>
       </c>
       <c r="B15">
-        <v>273.95999999999998</v>
+        <v>254.36</v>
       </c>
       <c r="C15">
         <v>55.8877226475811</v>
@@ -12335,7 +13645,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.396472627179121</v>
+        <v>1.3266572784645074</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -12351,7 +13661,7 @@
         <v>4096</v>
       </c>
       <c r="B16">
-        <v>335.37</v>
+        <v>319.60000000000002</v>
       </c>
       <c r="C16">
         <v>55.8877226475811</v>
@@ -12361,7 +13671,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.7095014782342746</v>
+        <v>1.6669274500599804</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -12377,7 +13687,7 @@
         <v>8192</v>
       </c>
       <c r="B17">
-        <v>338.09</v>
+        <v>318.77</v>
       </c>
       <c r="C17">
         <v>55.8877226475811</v>
@@ -12387,7 +13697,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.7233662962585379</v>
+        <v>1.6625984457309759</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -12404,7 +13714,7 @@
         <v>16384</v>
       </c>
       <c r="B18" s="5">
-        <v>2426.5500000000002</v>
+        <v>2265.59</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -12414,7 +13724,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>12.368997859108982</v>
+        <v>11.816564961143277</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -12439,6 +13749,467 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2347A84-B413-504A-AB33-5D33B723CAFE}">
+  <dimension ref="A2:R18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>196.18</v>
+      </c>
+      <c r="C3">
+        <v>1.26138969316015</v>
+      </c>
+      <c r="D3">
+        <v>6.3556460153053093E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:G18" si="0">B3/B$3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>589.17999999999995</v>
+      </c>
+      <c r="C4">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D4">
+        <v>4.7750208213154499</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>3.0032623101233558</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>75.130377145242406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>340.02</v>
+      </c>
+      <c r="C5">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D5">
+        <v>4.7748688043190102</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.7332042002242836</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>75.12798530346781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>184.33</v>
+      </c>
+      <c r="C6">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D6">
+        <v>4.7743949360507303</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.9395962891222347</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>75.120529440332277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>106.23</v>
+      </c>
+      <c r="C7">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D7">
+        <v>4.7633404026901101</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.54149250688143546</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>74.946596950479957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>67.42</v>
+      </c>
+      <c r="C8">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D8">
+        <v>4.7450944440546898</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.34366398205729431</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>74.659514274832489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>48.46</v>
+      </c>
+      <c r="C9">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D9">
+        <v>4.7261296891179896</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.24701804465286981</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>74.361122028143001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>42.48</v>
+      </c>
+      <c r="C10">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D10">
+        <v>4.6269249721174699</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.21653583443776123</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>72.800230865205037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>39.46</v>
+      </c>
+      <c r="C11">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D11">
+        <v>4.4961755355011501</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.20114180854317462</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>70.743013765614279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <v>45.92</v>
+      </c>
+      <c r="C12">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D12">
+        <v>4.3229039153806301</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.2340707513508003</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>68.016750853814955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13">
+        <v>61.64</v>
+      </c>
+      <c r="C13">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D13">
+        <v>3.9709285093170301</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.31420124375573449</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>62.47875510616015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1024</v>
+      </c>
+      <c r="B14">
+        <v>73.38</v>
+      </c>
+      <c r="C14">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D14">
+        <v>3.8307054769999902</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.374044245081048</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>60.272480055923516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2048</v>
+      </c>
+      <c r="B15">
+        <v>273.95999999999998</v>
+      </c>
+      <c r="C15">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D15">
+        <v>0.710278693960533</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.396472627179121</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>11.175554652510222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4096</v>
+      </c>
+      <c r="B16">
+        <v>335.37</v>
+      </c>
+      <c r="C16">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D16">
+        <v>0.61276051304034596</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.7095014782342746</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>9.6411995187386239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8192</v>
+      </c>
+      <c r="B17">
+        <v>338.09</v>
+      </c>
+      <c r="C17">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.61276051304034596</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.7233662962585379</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>9.6411995187386239</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16384</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2426.5500000000002</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>12.368997859108982</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="R18" s="5"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B18">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF0CA-7BED-8C47-B9D6-5A56E6D2CDD3}">
   <dimension ref="A2:L18"/>
   <sheetViews>
@@ -12896,7 +14667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB006D-EF5F-2D4D-86DC-4D6E506A45E0}">
   <dimension ref="A2:L18"/>
   <sheetViews>
@@ -13353,7 +15124,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B42892-40D1-4548-A56D-9001ACB7B0BC}">
   <dimension ref="A2:I18"/>
   <sheetViews>
@@ -13826,7 +15597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC69C5D9-B88F-FF4D-BBBE-0229262C4A41}">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -14303,7 +16074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393E3666-8983-354A-B652-1578FACF0E70}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -14764,7 +16535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310253C2-5867-A04F-B696-06BC56F172E8}">
   <dimension ref="A1:U17"/>
   <sheetViews>

--- a/Benchmark/Compare.xlsx
+++ b/Benchmark/Compare.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxofyellow/Projects/Ascii3dEngine/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68FA88F-55D2-714E-9B2B-8358794E1DF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740FF13A-445C-1C48-98F0-99D6EEBC756A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4800" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{DB605785-6E2F-D842-AA87-F2BDEE7FB0D4}"/>
+    <workbookView xWindow="-9320" yWindow="-24840" windowWidth="38400" windowHeight="21140" xr2:uid="{DB605785-6E2F-D842-AA87-F2BDEE7FB0D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Benchmark-net5.0" sheetId="8" r:id="rId1"/>
-    <sheet name="Benchmark-IgnoreForeground" sheetId="7" r:id="rId2"/>
-    <sheet name="Benchmark-SplitBy4" sheetId="6" r:id="rId3"/>
-    <sheet name="Benchmark-IgnoreBackground" sheetId="5" r:id="rId4"/>
-    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId5"/>
-    <sheet name="Benchmark-1" sheetId="3" r:id="rId6"/>
-    <sheet name="Benchmark-0" sheetId="2" r:id="rId7"/>
-    <sheet name="Org - stop watch" sheetId="1" r:id="rId8"/>
+    <sheet name="Benchmark-net6.0" sheetId="9" r:id="rId1"/>
+    <sheet name="Benchmark-net5.0" sheetId="8" r:id="rId2"/>
+    <sheet name="Benchmark-IgnoreForeground" sheetId="7" r:id="rId3"/>
+    <sheet name="Benchmark-SplitBy4" sheetId="6" r:id="rId4"/>
+    <sheet name="Benchmark-IgnoreBackground" sheetId="5" r:id="rId5"/>
+    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId6"/>
+    <sheet name="Benchmark-1" sheetId="3" r:id="rId7"/>
+    <sheet name="Benchmark-0" sheetId="2" r:id="rId8"/>
+    <sheet name="Org - stop watch" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="16">
   <si>
     <t>max Children</t>
   </si>
@@ -97,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -115,6 +116,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF6272A4"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A9955"/>
       <name val="Menlo"/>
       <family val="2"/>
     </font>
@@ -140,19 +147,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -351,7 +369,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-net5.0'!$E$2</c:f>
+              <c:f>'Benchmark-net6.0'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -386,7 +404,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-net5.0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-net6.0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -443,7 +461,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-net5.0'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-net6.0'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -451,49 +469,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9345955249569706</c:v>
+                  <c:v>3.0203720106288752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6791842695457153</c:v>
+                  <c:v>1.7571510446516958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91738382099827875</c:v>
+                  <c:v>0.98634918980878439</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51661190215407082</c:v>
+                  <c:v>0.56927004637107281</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32863923225369007</c:v>
+                  <c:v>0.33970718491116553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23527877744745215</c:v>
+                  <c:v>0.23852446204345334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20680123089761646</c:v>
+                  <c:v>0.21247329755640076</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19861263234757212</c:v>
+                  <c:v>0.20721096233001615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22072706410055809</c:v>
+                  <c:v>0.22294586568019589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29108642361654413</c:v>
+                  <c:v>0.29370082842703066</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3600375528086372</c:v>
+                  <c:v>0.36831136351794924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3266572784645074</c:v>
+                  <c:v>1.3946751419788463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6669274500599804</c:v>
+                  <c:v>1.7081227530870629</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6625984457309759</c:v>
+                  <c:v>1.7074454228103995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.816564961143277</c:v>
+                  <c:v>12.58104517271922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -501,7 +519,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FC7-A24B-881D-C6E293CBB425}"/>
+              <c16:uniqueId val="{00000000-B7E7-AA44-B85E-D79FCEDB4D4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -524,7 +542,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-net5.0'!$G$2</c:f>
+              <c:f>'Benchmark-net6.0'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -559,7 +577,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-net5.0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-net6.0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -616,7 +634,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-net5.0'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-net6.0'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -674,7 +692,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7FC7-A24B-881D-C6E293CBB425}"/>
+              <c16:uniqueId val="{00000001-B7E7-AA44-B85E-D79FCEDB4D4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -999,6 +1017,690 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Compare</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Search and Avg by max Children</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Org - stop watch'!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Org - stop watch'!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Org - stop watch'!$N$2:$N$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1.6013572886211818</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0116101654305383</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60226350873342693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31657081319077662</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20582736960538878</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17863934849692506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.16693674634655206</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.19226809370815007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26478838654541009</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.40130437852326389</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.46122634038205851</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.94713044947780345</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.1444598789192391</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1496454087730388</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.5969614405610617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E1E9-4E45-B364-E50CAEF4905E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="197240672"/>
+        <c:axId val="197880368"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Org - stop watch'!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Org - stop watch'!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Org - stop watch'!$Q$2:$Q$16</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>97.105506467866903</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.937755403957098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.936339917125679</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.743833409501633</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.094508386154232</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.081242007583825</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.76828868270492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>79.951521347980659</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.283102383559779</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.196032856175357</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.647297698688156</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.3828615969930995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7374952502393177</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7374952502393177</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1E9-4E45-B364-E50CAEF4905E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="983404064"/>
+        <c:axId val="983408400"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="197240672"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197880368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="197880368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="197240672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="983408400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="983404064"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="983404064"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="983408400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Compare Max of Compare Search and Avg</a:t>
             </a:r>
           </a:p>
@@ -1651,7 +2353,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreForeground'!$E$2</c:f>
+              <c:f>'Benchmark-net5.0'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1686,7 +2388,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-net5.0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1743,7 +2445,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreForeground'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-net5.0'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1751,49 +2453,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0032623101233558</c:v>
+                  <c:v>2.9345955249569706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7332042002242836</c:v>
+                  <c:v>1.6791842695457153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9395962891222347</c:v>
+                  <c:v>0.91738382099827875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54149250688143546</c:v>
+                  <c:v>0.51661190215407082</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34366398205729431</c:v>
+                  <c:v>0.32863923225369007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24701804465286981</c:v>
+                  <c:v>0.23527877744745215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21653583443776123</c:v>
+                  <c:v>0.20680123089761646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20114180854317462</c:v>
+                  <c:v>0.19861263234757212</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2340707513508003</c:v>
+                  <c:v>0.22072706410055809</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31420124375573449</c:v>
+                  <c:v>0.29108642361654413</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.374044245081048</c:v>
+                  <c:v>0.3600375528086372</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.396472627179121</c:v>
+                  <c:v>1.3266572784645074</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7095014782342746</c:v>
+                  <c:v>1.6669274500599804</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7233662962585379</c:v>
+                  <c:v>1.6625984457309759</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.368997859108982</c:v>
+                  <c:v>11.816564961143277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1801,7 +2503,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E670-C045-87BB-547FEB129655}"/>
+              <c16:uniqueId val="{00000000-7FC7-A24B-881D-C6E293CBB425}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1824,7 +2526,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreForeground'!$G$2</c:f>
+              <c:f>'Benchmark-net5.0'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1859,7 +2561,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-net5.0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1916,7 +2618,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreForeground'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-net5.0'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -1974,7 +2676,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E670-C045-87BB-547FEB129655}"/>
+              <c16:uniqueId val="{00000001-7FC7-A24B-881D-C6E293CBB425}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2349,7 +3051,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-SplitBy4'!$E$2</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2384,7 +3086,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2441,7 +3143,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2449,49 +3151,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.691465877600864</c:v>
+                  <c:v>3.0032623101233558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5482598280963786</c:v>
+                  <c:v>1.7332042002242836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84040204781363026</c:v>
+                  <c:v>0.9395962891222347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47217134000281813</c:v>
+                  <c:v>0.54149250688143546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30576299845004928</c:v>
+                  <c:v>0.34366398205729431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22131417030670236</c:v>
+                  <c:v>0.24701804465286981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19383777182847214</c:v>
+                  <c:v>0.21653583443776123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18129726175379268</c:v>
+                  <c:v>0.20114180854317462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20590859987788268</c:v>
+                  <c:v>0.2340707513508003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27467004837724857</c:v>
+                  <c:v>0.31420124375573449</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33535296604198961</c:v>
+                  <c:v>0.374044245081048</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2496359964304167</c:v>
+                  <c:v>1.396472627179121</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5384434737682591</c:v>
+                  <c:v>1.7095014782342746</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5351087313888496</c:v>
+                  <c:v>1.7233662962585379</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.377812221126296</c:v>
+                  <c:v>12.368997859108982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2499,7 +3201,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB93-F54A-AE72-567299124932}"/>
+              <c16:uniqueId val="{00000000-E670-C045-87BB-547FEB129655}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2522,7 +3224,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-SplitBy4'!$G$2</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2557,7 +3259,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2614,7 +3316,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2672,7 +3374,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB93-F54A-AE72-567299124932}"/>
+              <c16:uniqueId val="{00000001-E670-C045-87BB-547FEB129655}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3047,7 +3749,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreBackground'!$E$2</c:f>
+              <c:f>'Benchmark-SplitBy4'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3082,7 +3784,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3139,7 +3841,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3147,49 +3849,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9010930418555054</c:v>
+                  <c:v>2.691465877600864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0918421754198882</c:v>
+                  <c:v>1.5482598280963786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59554118901626241</c:v>
+                  <c:v>0.84040204781363026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33717675286590248</c:v>
+                  <c:v>0.47217134000281813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21837509997334045</c:v>
+                  <c:v>0.30576299845004928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1563249800053319</c:v>
+                  <c:v>0.22131417030670236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13599706744868037</c:v>
+                  <c:v>0.19383777182847214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12999866702212742</c:v>
+                  <c:v>0.18129726175379268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14666089042921887</c:v>
+                  <c:v>0.20590859987788268</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19348173820314585</c:v>
+                  <c:v>0.27467004837724857</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23810317248733673</c:v>
+                  <c:v>0.33535296604198961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88892961876832854</c:v>
+                  <c:v>1.2496359964304167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0965075979738739</c:v>
+                  <c:v>1.5384434737682591</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0890429218874969</c:v>
+                  <c:v>1.5351087313888496</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.0780791788856323</c:v>
+                  <c:v>11.377812221126296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,7 +3899,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0279-4742-B2B7-DEBAB787DE3C}"/>
+              <c16:uniqueId val="{00000000-FB93-F54A-AE72-567299124932}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3220,7 +3922,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreBackground'!$G$2</c:f>
+              <c:f>'Benchmark-SplitBy4'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3255,7 +3957,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3312,7 +4014,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3370,7 +4072,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0279-4742-B2B7-DEBAB787DE3C}"/>
+              <c16:uniqueId val="{00000001-FB93-F54A-AE72-567299124932}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3745,7 +4447,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3780,7 +4482,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3837,7 +4539,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3845,49 +4547,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6420580934266096</c:v>
+                  <c:v>1.9010930418555054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0205680389438732</c:v>
+                  <c:v>1.0918421754198882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57264902156742636</c:v>
+                  <c:v>0.59554118901626241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32580031593539444</c:v>
+                  <c:v>0.33717675286590248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20319803991102228</c:v>
+                  <c:v>0.21837509997334045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14955349946806795</c:v>
+                  <c:v>0.1563249800053319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13108095038524775</c:v>
+                  <c:v>0.13599706744868037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12640639607982204</c:v>
+                  <c:v>0.12999866702212742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14200973596827751</c:v>
+                  <c:v>0.14666089042921887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18656307424481769</c:v>
+                  <c:v>0.19348173820314585</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22766691382700927</c:v>
+                  <c:v>0.23810317248733673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84283826042103227</c:v>
+                  <c:v>0.88892961876832854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0198265579161159</c:v>
+                  <c:v>1.0965075979738739</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0163448209162127</c:v>
+                  <c:v>1.0890429218874969</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3870530964892485</c:v>
+                  <c:v>8.0780791788856323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3895,7 +4597,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
+              <c16:uniqueId val="{00000000-0279-4742-B2B7-DEBAB787DE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3918,7 +4620,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3953,7 +4655,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4010,7 +4712,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4018,46 +4720,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.71913075421476</c:v>
+                  <c:v>75.130377145242406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.716286695852901</c:v>
+                  <c:v>75.12798530346781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.711188010860909</c:v>
+                  <c:v>75.120529440332277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.612390656014746</c:v>
+                  <c:v>74.946596950479957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.394170828306606</c:v>
+                  <c:v>74.659514274832489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.008148494607319</c:v>
+                  <c:v>74.361122028143001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.870118934010868</c:v>
+                  <c:v>72.800230865205037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.406175880511945</c:v>
+                  <c:v>70.743013765614279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.256856579395418</c:v>
+                  <c:v>68.016750853814955</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.471562538433759</c:v>
+                  <c:v>62.47875510616015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.774903095738722</c:v>
+                  <c:v>60.272480055923516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5190536736438887</c:v>
+                  <c:v>11.175554652510222</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3922938619277323</c:v>
+                  <c:v>9.6411995187386239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3922938619277323</c:v>
+                  <c:v>9.6411995187386239</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -4068,7 +4770,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
+              <c16:uniqueId val="{00000001-0279-4742-B2B7-DEBAB787DE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4443,7 +5145,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4478,7 +5180,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4535,7 +5237,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4543,49 +5245,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6949940439873326</c:v>
+                  <c:v>1.6420580934266096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0358522908858478</c:v>
+                  <c:v>1.0205680389438732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51390220517737295</c:v>
+                  <c:v>0.57264902156742636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27682384729364595</c:v>
+                  <c:v>0.32580031593539444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18321276039396844</c:v>
+                  <c:v>0.20319803991102228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14907463900752493</c:v>
+                  <c:v>0.14955349946806795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14773816787239608</c:v>
+                  <c:v>0.13108095038524775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17754728492983526</c:v>
+                  <c:v>0.12640639607982204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23205206426682939</c:v>
+                  <c:v>0.14200973596827751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35006827624277287</c:v>
+                  <c:v>0.18656307424481769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3986170429123449</c:v>
+                  <c:v>0.22766691382700927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85603881577035934</c:v>
+                  <c:v>0.84283826042103227</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1698480490426799</c:v>
+                  <c:v>1.0198265579161159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0309131584299369</c:v>
+                  <c:v>1.0163448209162127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.755977802957668</c:v>
+                  <c:v>7.3870530964892485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4593,7 +5295,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4616,7 +5318,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4651,7 +5353,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4708,7 +5410,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4716,46 +5418,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.404034733567556</c:v>
+                  <c:v>55.71913075421476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.235459109266131</c:v>
+                  <c:v>55.716286695852901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.233997674220674</c:v>
+                  <c:v>55.711188010860909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.013468877933761</c:v>
+                  <c:v>55.612390656014746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.288483051946173</c:v>
+                  <c:v>55.394170828306606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.271434597823557</c:v>
+                  <c:v>55.008148494607319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.928756251136306</c:v>
+                  <c:v>53.870118934010868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.024710093666101</c:v>
+                  <c:v>52.406175880511945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.115721335025931</c:v>
+                  <c:v>50.256856579395418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.70115925125949</c:v>
+                  <c:v>46.471562538433759</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.059361638859471</c:v>
+                  <c:v>44.774903095738722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4701384253723315</c:v>
+                  <c:v>8.5190536736438887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -4766,7 +5468,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5091,6 +5793,704 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>C Search &amp;</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> C Avg vs Max Children</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6949940439873326</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0358522908858478</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51390220517737295</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27682384729364595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.18321276039396844</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14907463900752493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14773816787239608</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.17754728492983526</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23205206426682939</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.35006827624277287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.3986170429123449</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.85603881577035934</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1698480490426799</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0309131584299369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.755977802957668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="200140560"/>
+        <c:axId val="1829147359"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>C Avg Dif</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.404034733567556</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.235459109266131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>98.233997674220674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>97.013468877933761</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>91.288483051946173</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.271434597823557</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.928756251136306</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>81.024710093666101</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>63.115721335025931</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42.70115925125949</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.059361638859471</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.4701384253723315</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830783935"/>
+        <c:axId val="199545920"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="200140560"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+          <c:min val="0.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1829147359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1829147359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="200140560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="199545920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830783935"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830783935"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="199545920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Time</a:t>
             </a:r>
             <a:r>
@@ -5742,7 +7142,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6343,690 +7743,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Compare</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Search and Avg by max Children</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Org - stop watch'!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C Search</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Org - stop watch'!$H$2:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Org - stop watch'!$N$2:$N$16</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1.6013572886211818</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0116101654305383</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.60226350873342693</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31657081319077662</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.20582736960538878</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17863934849692506</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.16693674634655206</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.19226809370815007</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26478838654541009</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.40130437852326389</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.46122634038205851</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.94713044947780345</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.1444598789192391</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.1496454087730388</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.5969614405610617</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E1E9-4E45-B364-E50CAEF4905E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="197240672"/>
-        <c:axId val="197880368"/>
-      </c:scatterChart>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Org - stop watch'!$Q$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>C Avg</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Org - stop watch'!$H$2:$H$16</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1024</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2048</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4096</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8192</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>16384</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Org - stop watch'!$Q$2:$Q$16</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>97.105506467866903</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96.937755403957098</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>96.936339917125679</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>95.743833409501633</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90.094508386154232</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>89.081242007583825</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>87.76828868270492</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>79.951521347980659</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>62.283102383559779</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>42.196032856175357</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>33.647297698688156</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.3828615969930995</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.7374952502393177</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.7374952502393177</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E1E9-4E45-B364-E50CAEF4905E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="983404064"/>
-        <c:axId val="983408400"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="197240672"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="10000"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="197880368"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="197880368"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="2"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="197240672"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="983408400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="983404064"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="983404064"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="983408400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7068,6 +7784,46 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8459,7 +9215,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8975,7 +9731,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9491,7 +10247,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10007,7 +10763,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10523,7 +11279,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11039,7 +11795,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11555,7 +12311,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12071,7 +12827,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12587,7 +13343,566 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA15113-EBC7-F945-94BB-073C3763AC8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12630,7 +13945,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12673,7 +13988,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12716,7 +14031,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12759,7 +14074,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12802,7 +14117,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -12843,7 +14158,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -13288,16 +14603,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308CD095-D742-D342-9536-BC68A63C79E7}">
-  <dimension ref="A2:R18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C1D8A7-E132-F44F-A6BE-36BAE380C2C0}">
+  <dimension ref="A2:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" t="s">
         <v>14</v>
@@ -13317,13 +14632,14 @@
       <c r="G2" t="s">
         <v>15</v>
       </c>
+      <c r="T2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>191.73</v>
+        <v>191.93</v>
       </c>
       <c r="C3">
         <v>1.26138969316015</v>
@@ -13343,13 +14659,14 @@
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
+      <c r="T3" s="6"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>562.65</v>
+        <v>579.70000000000005</v>
       </c>
       <c r="C4">
         <v>82.538015905202897</v>
@@ -13359,7 +14676,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>2.9345955249569706</v>
+        <v>3.0203720106288752</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -13369,13 +14686,14 @@
         <f t="shared" si="0"/>
         <v>75.130377145242406</v>
       </c>
+      <c r="T4" s="6"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>321.95</v>
+        <v>337.25</v>
       </c>
       <c r="C5">
         <v>82.538015905202897</v>
@@ -13385,7 +14703,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.6791842695457153</v>
+        <v>1.7571510446516958</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -13395,13 +14713,14 @@
         <f t="shared" si="0"/>
         <v>75.12798530346781</v>
       </c>
+      <c r="T5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>175.89</v>
+        <v>189.31</v>
       </c>
       <c r="C6">
         <v>82.538015905202897</v>
@@ -13411,7 +14730,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.91738382099827875</v>
+        <v>0.98634918980878439</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -13421,13 +14740,14 @@
         <f t="shared" si="0"/>
         <v>75.120529440332277</v>
       </c>
+      <c r="T6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
       <c r="B7">
-        <v>99.05</v>
+        <v>109.26</v>
       </c>
       <c r="C7">
         <v>82.538015905202897</v>
@@ -13437,7 +14757,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.51661190215407082</v>
+        <v>0.56927004637107281</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -13447,13 +14767,14 @@
         <f t="shared" si="0"/>
         <v>74.946596950479957</v>
       </c>
+      <c r="T7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>63.01</v>
+        <v>65.2</v>
       </c>
       <c r="C8">
         <v>82.538015905202897</v>
@@ -13463,7 +14784,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.32863923225369007</v>
+        <v>0.33970718491116553</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -13473,13 +14794,14 @@
         <f t="shared" si="0"/>
         <v>74.659514274832489</v>
       </c>
+      <c r="T8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>32</v>
       </c>
       <c r="B9">
-        <v>45.11</v>
+        <v>45.78</v>
       </c>
       <c r="C9">
         <v>82.538015905202897</v>
@@ -13489,7 +14811,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.23527877744745215</v>
+        <v>0.23852446204345334</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -13499,13 +14821,14 @@
         <f t="shared" si="0"/>
         <v>74.361122028143001</v>
       </c>
+      <c r="T9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>64</v>
       </c>
       <c r="B10">
-        <v>39.65</v>
+        <v>40.78</v>
       </c>
       <c r="C10">
         <v>82.538015905202897</v>
@@ -13515,7 +14838,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.20680123089761646</v>
+        <v>0.21247329755640076</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -13525,13 +14848,14 @@
         <f t="shared" si="0"/>
         <v>72.800230865205037</v>
       </c>
+      <c r="T10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>128</v>
       </c>
       <c r="B11">
-        <v>38.08</v>
+        <v>39.770000000000003</v>
       </c>
       <c r="C11">
         <v>82.538015905202897</v>
@@ -13541,7 +14865,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.19861263234757212</v>
+        <v>0.20721096233001615</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -13551,13 +14875,14 @@
         <f t="shared" si="0"/>
         <v>70.743013765614279</v>
       </c>
+      <c r="T11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>256</v>
       </c>
       <c r="B12">
-        <v>42.32</v>
+        <v>42.79</v>
       </c>
       <c r="C12">
         <v>82.538015905202897</v>
@@ -13567,7 +14892,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.22072706410055809</v>
+        <v>0.22294586568019589</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -13577,13 +14902,14 @@
         <f t="shared" si="0"/>
         <v>68.016750853814955</v>
       </c>
+      <c r="T12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>512</v>
       </c>
       <c r="B13">
-        <v>55.81</v>
+        <v>56.37</v>
       </c>
       <c r="C13">
         <v>82.538015905202897</v>
@@ -13593,7 +14919,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.29108642361654413</v>
+        <v>0.29370082842703066</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -13603,13 +14929,14 @@
         <f t="shared" si="0"/>
         <v>62.47875510616015</v>
       </c>
+      <c r="T13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1024</v>
       </c>
       <c r="B14">
-        <v>69.03</v>
+        <v>70.69</v>
       </c>
       <c r="C14">
         <v>82.538015905202897</v>
@@ -13619,7 +14946,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.3600375528086372</v>
+        <v>0.36831136351794924</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -13629,13 +14956,14 @@
         <f t="shared" si="0"/>
         <v>60.272480055923516</v>
       </c>
+      <c r="T14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2048</v>
       </c>
       <c r="B15">
-        <v>254.36</v>
+        <v>267.68</v>
       </c>
       <c r="C15">
         <v>55.8877226475811</v>
@@ -13645,7 +14973,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.3266572784645074</v>
+        <v>1.3946751419788463</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -13655,13 +14983,14 @@
         <f t="shared" si="0"/>
         <v>11.175554652510222</v>
       </c>
+      <c r="T15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4096</v>
       </c>
       <c r="B16">
-        <v>319.60000000000002</v>
+        <v>327.84</v>
       </c>
       <c r="C16">
         <v>55.8877226475811</v>
@@ -13671,7 +15000,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.6669274500599804</v>
+        <v>1.7081227530870629</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -13681,13 +15010,14 @@
         <f t="shared" si="0"/>
         <v>9.6411995187386239</v>
       </c>
+      <c r="T16" s="6"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8192</v>
       </c>
       <c r="B17">
-        <v>318.77</v>
+        <v>327.71</v>
       </c>
       <c r="C17">
         <v>55.8877226475811</v>
@@ -13697,7 +15027,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.6625984457309759</v>
+        <v>1.7074454228103995</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -13707,14 +15037,14 @@
         <f t="shared" si="0"/>
         <v>9.6411995187386239</v>
       </c>
-      <c r="L17" s="5"/>
+      <c r="T17" s="6"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16384</v>
       </c>
       <c r="B18" s="5">
-        <v>2265.59</v>
+        <v>2414.6799999999998</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -13724,7 +15054,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>11.816564961143277</v>
+        <v>12.58104517271922</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -13734,12 +15064,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="R18" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13749,11 +15077,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2347A84-B413-504A-AB33-5D33B723CAFE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308CD095-D742-D342-9536-BC68A63C79E7}">
   <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13784,7 +15112,7 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>196.18</v>
+        <v>191.73</v>
       </c>
       <c r="C3">
         <v>1.26138969316015</v>
@@ -13810,7 +15138,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>589.17999999999995</v>
+        <v>562.65</v>
       </c>
       <c r="C4">
         <v>82.538015905202897</v>
@@ -13820,7 +15148,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>3.0032623101233558</v>
+        <v>2.9345955249569706</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -13836,7 +15164,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>340.02</v>
+        <v>321.95</v>
       </c>
       <c r="C5">
         <v>82.538015905202897</v>
@@ -13846,7 +15174,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.7332042002242836</v>
+        <v>1.6791842695457153</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -13862,7 +15190,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>184.33</v>
+        <v>175.89</v>
       </c>
       <c r="C6">
         <v>82.538015905202897</v>
@@ -13872,7 +15200,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.9395962891222347</v>
+        <v>0.91738382099827875</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -13888,7 +15216,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>106.23</v>
+        <v>99.05</v>
       </c>
       <c r="C7">
         <v>82.538015905202897</v>
@@ -13898,7 +15226,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.54149250688143546</v>
+        <v>0.51661190215407082</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -13914,7 +15242,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>67.42</v>
+        <v>63.01</v>
       </c>
       <c r="C8">
         <v>82.538015905202897</v>
@@ -13924,7 +15252,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.34366398205729431</v>
+        <v>0.32863923225369007</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -13940,7 +15268,7 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>48.46</v>
+        <v>45.11</v>
       </c>
       <c r="C9">
         <v>82.538015905202897</v>
@@ -13950,7 +15278,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.24701804465286981</v>
+        <v>0.23527877744745215</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -13966,7 +15294,7 @@
         <v>64</v>
       </c>
       <c r="B10">
-        <v>42.48</v>
+        <v>39.65</v>
       </c>
       <c r="C10">
         <v>82.538015905202897</v>
@@ -13976,7 +15304,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.21653583443776123</v>
+        <v>0.20680123089761646</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -13992,7 +15320,7 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>39.46</v>
+        <v>38.08</v>
       </c>
       <c r="C11">
         <v>82.538015905202897</v>
@@ -14002,7 +15330,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.20114180854317462</v>
+        <v>0.19861263234757212</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -14018,7 +15346,7 @@
         <v>256</v>
       </c>
       <c r="B12">
-        <v>45.92</v>
+        <v>42.32</v>
       </c>
       <c r="C12">
         <v>82.538015905202897</v>
@@ -14028,7 +15356,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.2340707513508003</v>
+        <v>0.22072706410055809</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -14044,7 +15372,7 @@
         <v>512</v>
       </c>
       <c r="B13">
-        <v>61.64</v>
+        <v>55.81</v>
       </c>
       <c r="C13">
         <v>82.538015905202897</v>
@@ -14054,7 +15382,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.31420124375573449</v>
+        <v>0.29108642361654413</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -14070,7 +15398,7 @@
         <v>1024</v>
       </c>
       <c r="B14">
-        <v>73.38</v>
+        <v>69.03</v>
       </c>
       <c r="C14">
         <v>82.538015905202897</v>
@@ -14080,7 +15408,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.374044245081048</v>
+        <v>0.3600375528086372</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -14096,7 +15424,7 @@
         <v>2048</v>
       </c>
       <c r="B15">
-        <v>273.95999999999998</v>
+        <v>254.36</v>
       </c>
       <c r="C15">
         <v>55.8877226475811</v>
@@ -14106,7 +15434,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.396472627179121</v>
+        <v>1.3266572784645074</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -14122,7 +15450,7 @@
         <v>4096</v>
       </c>
       <c r="B16">
-        <v>335.37</v>
+        <v>319.60000000000002</v>
       </c>
       <c r="C16">
         <v>55.8877226475811</v>
@@ -14132,7 +15460,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.7095014782342746</v>
+        <v>1.6669274500599804</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -14148,7 +15476,7 @@
         <v>8192</v>
       </c>
       <c r="B17">
-        <v>338.09</v>
+        <v>318.77</v>
       </c>
       <c r="C17">
         <v>55.8877226475811</v>
@@ -14158,7 +15486,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.7233662962585379</v>
+        <v>1.6625984457309759</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -14175,7 +15503,7 @@
         <v>16384</v>
       </c>
       <c r="B18" s="5">
-        <v>2426.5500000000002</v>
+        <v>2265.59</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -14185,7 +15513,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>12.368997859108982</v>
+        <v>11.816564961143277</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -14210,10 +15538,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF0CA-7BED-8C47-B9D6-5A56E6D2CDD3}">
-  <dimension ref="A2:L18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2347A84-B413-504A-AB33-5D33B723CAFE}">
+  <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -14243,7 +15573,7 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>212.91</v>
+        <v>196.18</v>
       </c>
       <c r="C3">
         <v>1.26138969316015</v>
@@ -14269,7 +15599,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>573.04</v>
+        <v>589.17999999999995</v>
       </c>
       <c r="C4">
         <v>82.538015905202897</v>
@@ -14279,7 +15609,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>2.691465877600864</v>
+        <v>3.0032623101233558</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -14295,7 +15625,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>329.64</v>
+        <v>340.02</v>
       </c>
       <c r="C5">
         <v>82.538015905202897</v>
@@ -14305,7 +15635,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.5482598280963786</v>
+        <v>1.7332042002242836</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -14321,7 +15651,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>178.93</v>
+        <v>184.33</v>
       </c>
       <c r="C6">
         <v>82.538015905202897</v>
@@ -14331,7 +15661,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.84040204781363026</v>
+        <v>0.9395962891222347</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -14347,7 +15677,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>100.53</v>
+        <v>106.23</v>
       </c>
       <c r="C7">
         <v>82.538015905202897</v>
@@ -14357,7 +15687,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.47217134000281813</v>
+        <v>0.54149250688143546</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -14373,7 +15703,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>65.099999999999994</v>
+        <v>67.42</v>
       </c>
       <c r="C8">
         <v>82.538015905202897</v>
@@ -14383,7 +15713,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.30576299845004928</v>
+        <v>0.34366398205729431</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -14399,7 +15729,7 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>47.12</v>
+        <v>48.46</v>
       </c>
       <c r="C9">
         <v>82.538015905202897</v>
@@ -14409,7 +15739,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.22131417030670236</v>
+        <v>0.24701804465286981</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -14425,7 +15755,7 @@
         <v>64</v>
       </c>
       <c r="B10">
-        <v>41.27</v>
+        <v>42.48</v>
       </c>
       <c r="C10">
         <v>82.538015905202897</v>
@@ -14435,7 +15765,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.19383777182847214</v>
+        <v>0.21653583443776123</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -14451,7 +15781,7 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>38.6</v>
+        <v>39.46</v>
       </c>
       <c r="C11">
         <v>82.538015905202897</v>
@@ -14461,7 +15791,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.18129726175379268</v>
+        <v>0.20114180854317462</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -14477,7 +15807,7 @@
         <v>256</v>
       </c>
       <c r="B12">
-        <v>43.84</v>
+        <v>45.92</v>
       </c>
       <c r="C12">
         <v>82.538015905202897</v>
@@ -14487,7 +15817,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.20590859987788268</v>
+        <v>0.2340707513508003</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -14503,7 +15833,7 @@
         <v>512</v>
       </c>
       <c r="B13">
-        <v>58.48</v>
+        <v>61.64</v>
       </c>
       <c r="C13">
         <v>82.538015905202897</v>
@@ -14513,7 +15843,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.27467004837724857</v>
+        <v>0.31420124375573449</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -14529,7 +15859,7 @@
         <v>1024</v>
       </c>
       <c r="B14">
-        <v>71.400000000000006</v>
+        <v>73.38</v>
       </c>
       <c r="C14">
         <v>82.538015905202897</v>
@@ -14539,7 +15869,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.33535296604198961</v>
+        <v>0.374044245081048</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -14555,7 +15885,7 @@
         <v>2048</v>
       </c>
       <c r="B15">
-        <v>266.06</v>
+        <v>273.95999999999998</v>
       </c>
       <c r="C15">
         <v>55.8877226475811</v>
@@ -14565,7 +15895,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.2496359964304167</v>
+        <v>1.396472627179121</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -14581,7 +15911,7 @@
         <v>4096</v>
       </c>
       <c r="B16">
-        <v>327.55</v>
+        <v>335.37</v>
       </c>
       <c r="C16">
         <v>55.8877226475811</v>
@@ -14591,7 +15921,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.5384434737682591</v>
+        <v>1.7095014782342746</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -14602,12 +15932,12 @@
         <v>9.6411995187386239</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>8192</v>
       </c>
       <c r="B17">
-        <v>326.83999999999997</v>
+        <v>338.09</v>
       </c>
       <c r="C17">
         <v>55.8877226475811</v>
@@ -14617,7 +15947,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.5351087313888496</v>
+        <v>1.7233662962585379</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -14629,12 +15959,12 @@
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16384</v>
       </c>
       <c r="B18" s="5">
-        <v>2422.4499999999998</v>
+        <v>2426.5500000000002</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -14644,7 +15974,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>11.377812221126296</v>
+        <v>12.368997859108982</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -14655,6 +15985,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="5"/>
+      <c r="R18" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
@@ -14668,7 +15999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB006D-EF5F-2D4D-86DC-4D6E506A45E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF0CA-7BED-8C47-B9D6-5A56E6D2CDD3}">
   <dimension ref="A2:L18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -14701,7 +16032,7 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>300.08</v>
+        <v>212.91</v>
       </c>
       <c r="C3">
         <v>1.26138969316015</v>
@@ -14727,7 +16058,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>570.48</v>
+        <v>573.04</v>
       </c>
       <c r="C4">
         <v>82.538015905202897</v>
@@ -14737,7 +16068,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>1.9010930418555054</v>
+        <v>2.691465877600864</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -14753,7 +16084,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>327.64</v>
+        <v>329.64</v>
       </c>
       <c r="C5">
         <v>82.538015905202897</v>
@@ -14763,7 +16094,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.0918421754198882</v>
+        <v>1.5482598280963786</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -14779,7 +16110,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>178.71</v>
+        <v>178.93</v>
       </c>
       <c r="C6">
         <v>82.538015905202897</v>
@@ -14789,7 +16120,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.59554118901626241</v>
+        <v>0.84040204781363026</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -14805,7 +16136,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>101.18</v>
+        <v>100.53</v>
       </c>
       <c r="C7">
         <v>82.538015905202897</v>
@@ -14815,7 +16146,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.33717675286590248</v>
+        <v>0.47217134000281813</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -14831,7 +16162,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>65.53</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="C8">
         <v>82.538015905202897</v>
@@ -14841,7 +16172,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.21837509997334045</v>
+        <v>0.30576299845004928</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -14857,7 +16188,7 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>46.91</v>
+        <v>47.12</v>
       </c>
       <c r="C9">
         <v>82.538015905202897</v>
@@ -14867,7 +16198,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.1563249800053319</v>
+        <v>0.22131417030670236</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -14883,7 +16214,7 @@
         <v>64</v>
       </c>
       <c r="B10">
-        <v>40.81</v>
+        <v>41.27</v>
       </c>
       <c r="C10">
         <v>82.538015905202897</v>
@@ -14893,7 +16224,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.13599706744868037</v>
+        <v>0.19383777182847214</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -14909,7 +16240,7 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>39.01</v>
+        <v>38.6</v>
       </c>
       <c r="C11">
         <v>82.538015905202897</v>
@@ -14919,7 +16250,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.12999866702212742</v>
+        <v>0.18129726175379268</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -14935,7 +16266,7 @@
         <v>256</v>
       </c>
       <c r="B12">
-        <v>44.01</v>
+        <v>43.84</v>
       </c>
       <c r="C12">
         <v>82.538015905202897</v>
@@ -14945,7 +16276,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.14666089042921887</v>
+        <v>0.20590859987788268</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -14961,7 +16292,7 @@
         <v>512</v>
       </c>
       <c r="B13">
-        <v>58.06</v>
+        <v>58.48</v>
       </c>
       <c r="C13">
         <v>82.538015905202897</v>
@@ -14971,7 +16302,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.19348173820314585</v>
+        <v>0.27467004837724857</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -14987,7 +16318,7 @@
         <v>1024</v>
       </c>
       <c r="B14">
-        <v>71.45</v>
+        <v>71.400000000000006</v>
       </c>
       <c r="C14">
         <v>82.538015905202897</v>
@@ -14997,7 +16328,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.23810317248733673</v>
+        <v>0.33535296604198961</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -15013,7 +16344,7 @@
         <v>2048</v>
       </c>
       <c r="B15">
-        <v>266.75</v>
+        <v>266.06</v>
       </c>
       <c r="C15">
         <v>55.8877226475811</v>
@@ -15023,7 +16354,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>0.88892961876832854</v>
+        <v>1.2496359964304167</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -15039,7 +16370,7 @@
         <v>4096</v>
       </c>
       <c r="B16">
-        <v>329.04</v>
+        <v>327.55</v>
       </c>
       <c r="C16">
         <v>55.8877226475811</v>
@@ -15049,7 +16380,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.0965075979738739</v>
+        <v>1.5384434737682591</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -15065,7 +16396,7 @@
         <v>8192</v>
       </c>
       <c r="B17">
-        <v>326.8</v>
+        <v>326.83999999999997</v>
       </c>
       <c r="C17">
         <v>55.8877226475811</v>
@@ -15075,7 +16406,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.0890429218874969</v>
+        <v>1.5351087313888496</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -15092,7 +16423,7 @@
         <v>16384</v>
       </c>
       <c r="B18" s="5">
-        <v>2424.0700000000002</v>
+        <v>2422.4499999999998</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -15102,7 +16433,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>8.0780791788856323</v>
+        <v>11.377812221126296</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -15112,6 +16443,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
+      <c r="L18" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
@@ -15125,6 +16457,463 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB006D-EF5F-2D4D-86DC-4D6E506A45E0}">
+  <dimension ref="A2:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>300.08</v>
+      </c>
+      <c r="C3">
+        <v>1.26138969316015</v>
+      </c>
+      <c r="D3">
+        <v>6.3556460153053093E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:G18" si="0">B3/B$3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>570.48</v>
+      </c>
+      <c r="C4">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D4">
+        <v>4.7750208213154499</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.9010930418555054</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>75.130377145242406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>327.64</v>
+      </c>
+      <c r="C5">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D5">
+        <v>4.7748688043190102</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.0918421754198882</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>75.12798530346781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>178.71</v>
+      </c>
+      <c r="C6">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D6">
+        <v>4.7743949360507303</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.59554118901626241</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>75.120529440332277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>101.18</v>
+      </c>
+      <c r="C7">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D7">
+        <v>4.7633404026901101</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.33717675286590248</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>74.946596950479957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>65.53</v>
+      </c>
+      <c r="C8">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D8">
+        <v>4.7450944440546898</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.21837509997334045</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>74.659514274832489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>46.91</v>
+      </c>
+      <c r="C9">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D9">
+        <v>4.7261296891179896</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.1563249800053319</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>74.361122028143001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>40.81</v>
+      </c>
+      <c r="C10">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D10">
+        <v>4.6269249721174699</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.13599706744868037</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>72.800230865205037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>39.01</v>
+      </c>
+      <c r="C11">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D11">
+        <v>4.4961755355011501</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.12999866702212742</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>70.743013765614279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <v>44.01</v>
+      </c>
+      <c r="C12">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D12">
+        <v>4.3229039153806301</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.14666089042921887</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>68.016750853814955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13">
+        <v>58.06</v>
+      </c>
+      <c r="C13">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D13">
+        <v>3.9709285093170301</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.19348173820314585</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>62.47875510616015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1024</v>
+      </c>
+      <c r="B14">
+        <v>71.45</v>
+      </c>
+      <c r="C14">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D14">
+        <v>3.8307054769999902</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.23810317248733673</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>60.272480055923516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2048</v>
+      </c>
+      <c r="B15">
+        <v>266.75</v>
+      </c>
+      <c r="C15">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D15">
+        <v>0.710278693960533</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.88892961876832854</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>11.175554652510222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4096</v>
+      </c>
+      <c r="B16">
+        <v>329.04</v>
+      </c>
+      <c r="C16">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D16">
+        <v>0.61276051304034596</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.0965075979738739</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>9.6411995187386239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8192</v>
+      </c>
+      <c r="B17">
+        <v>326.8</v>
+      </c>
+      <c r="C17">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.61276051304034596</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.0890429218874969</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>9.6411995187386239</v>
+      </c>
+      <c r="L17" s="5"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16384</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2424.0700000000002</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8.0780791788856323</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B18">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B42892-40D1-4548-A56D-9001ACB7B0BC}">
   <dimension ref="A2:I18"/>
   <sheetViews>
@@ -15588,7 +17377,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15597,7 +17386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC69C5D9-B88F-FF4D-BBBE-0229262C4A41}">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -16066,7 +17855,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16074,7 +17863,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393E3666-8983-354A-B652-1578FACF0E70}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -16526,7 +18315,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B18">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThan">
       <formula>$B$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16535,7 +18324,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310253C2-5867-A04F-B696-06BC56F172E8}">
   <dimension ref="A1:U17"/>
   <sheetViews>
@@ -17702,17 +19491,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J2:J16">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
       <formula>$C$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K16">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>$F$2</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Benchmark/Compare.xlsx
+++ b/Benchmark/Compare.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxofyellow/Projects/Ascii3dEngine/Benchmark/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/boxofyellow/Repos/Ascii3dEngine/Benchmark/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D270260-B8BA-8F40-B4FD-30881864BC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28B3186E-BAEC-8A42-9753-1C9E55478718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18760" xr2:uid="{DB605785-6E2F-D842-AA87-F2BDEE7FB0D4}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{DB605785-6E2F-D842-AA87-F2BDEE7FB0D4}"/>
   </bookViews>
   <sheets>
-    <sheet name="CharMap Fix" sheetId="10" r:id="rId1"/>
-    <sheet name="Benchmark-net6.0" sheetId="9" r:id="rId2"/>
-    <sheet name="Benchmark-net5.0" sheetId="8" r:id="rId3"/>
-    <sheet name="Benchmark-IgnoreForeground" sheetId="7" r:id="rId4"/>
-    <sheet name="Benchmark-SplitBy4" sheetId="6" r:id="rId5"/>
-    <sheet name="Benchmark-IgnoreBackground" sheetId="5" r:id="rId6"/>
-    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId7"/>
-    <sheet name="Benchmark-1" sheetId="3" r:id="rId8"/>
-    <sheet name="Benchmark-0" sheetId="2" r:id="rId9"/>
-    <sheet name="Org - stop watch" sheetId="1" r:id="rId10"/>
+    <sheet name="Benchmark-net8.0" sheetId="11" r:id="rId1"/>
+    <sheet name="CharMap Fix" sheetId="10" r:id="rId2"/>
+    <sheet name="Benchmark-net6.0" sheetId="9" r:id="rId3"/>
+    <sheet name="Benchmark-net5.0" sheetId="8" r:id="rId4"/>
+    <sheet name="Benchmark-IgnoreForeground" sheetId="7" r:id="rId5"/>
+    <sheet name="Benchmark-SplitBy4" sheetId="6" r:id="rId6"/>
+    <sheet name="Benchmark-IgnoreBackground" sheetId="5" r:id="rId7"/>
+    <sheet name="Benchmark-Fix Compare" sheetId="4" r:id="rId8"/>
+    <sheet name="Benchmark-1" sheetId="3" r:id="rId9"/>
+    <sheet name="Benchmark-0" sheetId="2" r:id="rId10"/>
+    <sheet name="Org - stop watch" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="16">
   <si>
     <t>max Children</t>
   </si>
@@ -161,7 +162,17 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -380,7 +391,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CharMap Fix'!$E$2</c:f>
+              <c:f>'Benchmark-net8.0'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -415,7 +426,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CharMap Fix'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-net8.0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -472,7 +483,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CharMap Fix'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-net8.0'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -480,49 +491,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.846181774174029</c:v>
+                  <c:v>5.6181532475306799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.537940215418129</c:v>
+                  <c:v>3.9591439688715959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.80321916979305352</c:v>
+                  <c:v>2.4179886261598327</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.48148372261890354</c:v>
+                  <c:v>1.4170158635139181</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.31889144378555007</c:v>
+                  <c:v>0.82954205327746189</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24543144136512166</c:v>
+                  <c:v>0.54459742592038318</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21196901851627739</c:v>
+                  <c:v>0.43250523795270879</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19920125862277624</c:v>
+                  <c:v>0.38850643519904227</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20059300496187826</c:v>
+                  <c:v>0.40047889853337332</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23738351688248818</c:v>
+                  <c:v>0.48099371445674954</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37728427931743924</c:v>
+                  <c:v>0.6410505836575876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.5165194239380371</c:v>
+                  <c:v>1.2844956599820414</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7929928597361735</c:v>
+                  <c:v>2.2852439389404369</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.8067893017064021</c:v>
+                  <c:v>2.0595630050882971</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.92799225462907</c:v>
+                  <c:v>15.436695600119727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -530,7 +541,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EFCA-CD43-8BED-70B071F97837}"/>
+              <c16:uniqueId val="{00000000-1A32-DC4C-AA70-985AC0074CB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -553,7 +564,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'CharMap Fix'!$G$2</c:f>
+              <c:f>'Benchmark-net8.0'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -588,7 +599,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'CharMap Fix'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-net8.0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -645,7 +656,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'CharMap Fix'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-net8.0'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -703,7 +714,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EFCA-CD43-8BED-70B071F97837}"/>
+              <c16:uniqueId val="{00000001-1A32-DC4C-AA70-985AC0074CB3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1028,6 +1039,692 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> by max children</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Org - stop watch'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fill (ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Org - stop watch'!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Org - stop watch'!$I$2:$I$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>11.849500000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.4913999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.6646999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4977999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.82340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8145</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5403</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5151</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40460000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.26979999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87849999999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.41499999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6D76-704B-877A-B5EA1B0281DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="199584576"/>
+        <c:axId val="955623504"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Org - stop watch'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Seach (MS)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Org - stop watch'!$H$2:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>16384</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Org - stop watch'!$J$2:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>564.75660000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>356.76830000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>212.4025</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111.64619999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.5899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.001399999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.874200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.807900000000004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>93.383899999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>141.52950000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>162.66239999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>334.02800000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>403.62090000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>405.44970000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3031.9222</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6D76-704B-877A-B5EA1B0281DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1830676399"/>
+        <c:axId val="1830033343"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="199584576"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="955623504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="955623504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="15"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="199584576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830033343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="500"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1830676399"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1830676399"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1830033343"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Dif by max Children</a:t>
             </a:r>
           </a:p>
@@ -1594,7 +2291,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2278,7 +2975,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2965,7 +3662,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-net6.0'!$E$2</c:f>
+              <c:f>'CharMap Fix'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3000,7 +3697,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-net6.0'!$A$3:$A$18</c:f>
+              <c:f>'CharMap Fix'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3057,7 +3754,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-net6.0'!$E$3:$E$18</c:f>
+              <c:f>'CharMap Fix'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3065,49 +3762,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0203720106288752</c:v>
+                  <c:v>2.846181774174029</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7571510446516958</c:v>
+                  <c:v>1.537940215418129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.98634918980878439</c:v>
+                  <c:v>0.80321916979305352</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.56927004637107281</c:v>
+                  <c:v>0.48148372261890354</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.33970718491116553</c:v>
+                  <c:v>0.31889144378555007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23852446204345334</c:v>
+                  <c:v>0.24543144136512166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21247329755640076</c:v>
+                  <c:v>0.21196901851627739</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20721096233001615</c:v>
+                  <c:v>0.19920125862277624</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22294586568019589</c:v>
+                  <c:v>0.20059300496187826</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29370082842703066</c:v>
+                  <c:v>0.23738351688248818</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.36831136351794924</c:v>
+                  <c:v>0.37728427931743924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3946751419788463</c:v>
+                  <c:v>1.5165194239380371</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7081227530870629</c:v>
+                  <c:v>1.7929928597361735</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7074454228103995</c:v>
+                  <c:v>1.8067893017064021</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.58104517271922</c:v>
+                  <c:v>12.92799225462907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3115,7 +3812,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B7E7-AA44-B85E-D79FCEDB4D4F}"/>
+              <c16:uniqueId val="{00000000-EFCA-CD43-8BED-70B071F97837}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3138,7 +3835,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-net6.0'!$G$2</c:f>
+              <c:f>'CharMap Fix'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3173,7 +3870,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-net6.0'!$A$3:$A$18</c:f>
+              <c:f>'CharMap Fix'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3230,7 +3927,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-net6.0'!$G$3:$G$18</c:f>
+              <c:f>'CharMap Fix'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3288,7 +3985,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-B7E7-AA44-B85E-D79FCEDB4D4F}"/>
+              <c16:uniqueId val="{00000001-EFCA-CD43-8BED-70B071F97837}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3663,7 +4360,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-net5.0'!$E$2</c:f>
+              <c:f>'Benchmark-net6.0'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3698,7 +4395,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-net5.0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-net6.0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3755,7 +4452,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-net5.0'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-net6.0'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3763,49 +4460,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9345955249569706</c:v>
+                  <c:v>3.0203720106288752</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6791842695457153</c:v>
+                  <c:v>1.7571510446516958</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.91738382099827875</c:v>
+                  <c:v>0.98634918980878439</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.51661190215407082</c:v>
+                  <c:v>0.56927004637107281</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.32863923225369007</c:v>
+                  <c:v>0.33970718491116553</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23527877744745215</c:v>
+                  <c:v>0.23852446204345334</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20680123089761646</c:v>
+                  <c:v>0.21247329755640076</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.19861263234757212</c:v>
+                  <c:v>0.20721096233001615</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.22072706410055809</c:v>
+                  <c:v>0.22294586568019589</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.29108642361654413</c:v>
+                  <c:v>0.29370082842703066</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3600375528086372</c:v>
+                  <c:v>0.36831136351794924</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3266572784645074</c:v>
+                  <c:v>1.3946751419788463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6669274500599804</c:v>
+                  <c:v>1.7081227530870629</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6625984457309759</c:v>
+                  <c:v>1.7074454228103995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.816564961143277</c:v>
+                  <c:v>12.58104517271922</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3813,7 +4510,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7FC7-A24B-881D-C6E293CBB425}"/>
+              <c16:uniqueId val="{00000000-B7E7-AA44-B85E-D79FCEDB4D4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3836,7 +4533,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-net5.0'!$G$2</c:f>
+              <c:f>'Benchmark-net6.0'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3871,7 +4568,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-net5.0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-net6.0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3928,7 +4625,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-net5.0'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-net6.0'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -3986,7 +4683,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7FC7-A24B-881D-C6E293CBB425}"/>
+              <c16:uniqueId val="{00000001-B7E7-AA44-B85E-D79FCEDB4D4F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4361,7 +5058,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreForeground'!$E$2</c:f>
+              <c:f>'Benchmark-net5.0'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4396,7 +5093,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-net5.0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4453,7 +5150,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreForeground'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-net5.0'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4461,49 +5158,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0032623101233558</c:v>
+                  <c:v>2.9345955249569706</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7332042002242836</c:v>
+                  <c:v>1.6791842695457153</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.9395962891222347</c:v>
+                  <c:v>0.91738382099827875</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.54149250688143546</c:v>
+                  <c:v>0.51661190215407082</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.34366398205729431</c:v>
+                  <c:v>0.32863923225369007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.24701804465286981</c:v>
+                  <c:v>0.23527877744745215</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21653583443776123</c:v>
+                  <c:v>0.20680123089761646</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20114180854317462</c:v>
+                  <c:v>0.19861263234757212</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2340707513508003</c:v>
+                  <c:v>0.22072706410055809</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31420124375573449</c:v>
+                  <c:v>0.29108642361654413</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.374044245081048</c:v>
+                  <c:v>0.3600375528086372</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.396472627179121</c:v>
+                  <c:v>1.3266572784645074</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.7095014782342746</c:v>
+                  <c:v>1.6669274500599804</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.7233662962585379</c:v>
+                  <c:v>1.6625984457309759</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.368997859108982</c:v>
+                  <c:v>11.816564961143277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4511,7 +5208,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E670-C045-87BB-547FEB129655}"/>
+              <c16:uniqueId val="{00000000-7FC7-A24B-881D-C6E293CBB425}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4534,7 +5231,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreForeground'!$G$2</c:f>
+              <c:f>'Benchmark-net5.0'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4569,7 +5266,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-net5.0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4626,7 +5323,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreForeground'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-net5.0'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -4684,7 +5381,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E670-C045-87BB-547FEB129655}"/>
+              <c16:uniqueId val="{00000001-7FC7-A24B-881D-C6E293CBB425}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5059,7 +5756,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-SplitBy4'!$E$2</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5094,7 +5791,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5151,7 +5848,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5159,49 +5856,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.691465877600864</c:v>
+                  <c:v>3.0032623101233558</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5482598280963786</c:v>
+                  <c:v>1.7332042002242836</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.84040204781363026</c:v>
+                  <c:v>0.9395962891222347</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47217134000281813</c:v>
+                  <c:v>0.54149250688143546</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30576299845004928</c:v>
+                  <c:v>0.34366398205729431</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22131417030670236</c:v>
+                  <c:v>0.24701804465286981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.19383777182847214</c:v>
+                  <c:v>0.21653583443776123</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.18129726175379268</c:v>
+                  <c:v>0.20114180854317462</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.20590859987788268</c:v>
+                  <c:v>0.2340707513508003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.27467004837724857</c:v>
+                  <c:v>0.31420124375573449</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.33535296604198961</c:v>
+                  <c:v>0.374044245081048</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2496359964304167</c:v>
+                  <c:v>1.396472627179121</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5384434737682591</c:v>
+                  <c:v>1.7095014782342746</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.5351087313888496</c:v>
+                  <c:v>1.7233662962585379</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>11.377812221126296</c:v>
+                  <c:v>12.368997859108982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5209,7 +5906,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FB93-F54A-AE72-567299124932}"/>
+              <c16:uniqueId val="{00000000-E670-C045-87BB-547FEB129655}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5232,7 +5929,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-SplitBy4'!$G$2</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5267,7 +5964,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5324,7 +6021,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-SplitBy4'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-IgnoreForeground'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5382,7 +6079,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FB93-F54A-AE72-567299124932}"/>
+              <c16:uniqueId val="{00000001-E670-C045-87BB-547FEB129655}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5757,7 +6454,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreBackground'!$E$2</c:f>
+              <c:f>'Benchmark-SplitBy4'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5792,7 +6489,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5849,7 +6546,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -5857,49 +6554,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9010930418555054</c:v>
+                  <c:v>2.691465877600864</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0918421754198882</c:v>
+                  <c:v>1.5482598280963786</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.59554118901626241</c:v>
+                  <c:v>0.84040204781363026</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.33717675286590248</c:v>
+                  <c:v>0.47217134000281813</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.21837509997334045</c:v>
+                  <c:v>0.30576299845004928</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1563249800053319</c:v>
+                  <c:v>0.22131417030670236</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13599706744868037</c:v>
+                  <c:v>0.19383777182847214</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12999866702212742</c:v>
+                  <c:v>0.18129726175379268</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14666089042921887</c:v>
+                  <c:v>0.20590859987788268</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19348173820314585</c:v>
+                  <c:v>0.27467004837724857</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.23810317248733673</c:v>
+                  <c:v>0.33535296604198961</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.88892961876832854</c:v>
+                  <c:v>1.2496359964304167</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0965075979738739</c:v>
+                  <c:v>1.5384434737682591</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0890429218874969</c:v>
+                  <c:v>1.5351087313888496</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.0780791788856323</c:v>
+                  <c:v>11.377812221126296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5907,7 +6604,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0279-4742-B2B7-DEBAB787DE3C}"/>
+              <c16:uniqueId val="{00000000-FB93-F54A-AE72-567299124932}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5930,7 +6627,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-IgnoreBackground'!$G$2</c:f>
+              <c:f>'Benchmark-SplitBy4'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5965,7 +6662,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6022,7 +6719,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-IgnoreBackground'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-SplitBy4'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6080,7 +6777,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0279-4742-B2B7-DEBAB787DE3C}"/>
+              <c16:uniqueId val="{00000001-FB93-F54A-AE72-567299124932}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6455,7 +7152,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6490,7 +7187,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6547,7 +7244,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6555,49 +7252,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6420580934266096</c:v>
+                  <c:v>1.9010930418555054</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0205680389438732</c:v>
+                  <c:v>1.0918421754198882</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.57264902156742636</c:v>
+                  <c:v>0.59554118901626241</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.32580031593539444</c:v>
+                  <c:v>0.33717675286590248</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.20319803991102228</c:v>
+                  <c:v>0.21837509997334045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14955349946806795</c:v>
+                  <c:v>0.1563249800053319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13108095038524775</c:v>
+                  <c:v>0.13599706744868037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12640639607982204</c:v>
+                  <c:v>0.12999866702212742</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.14200973596827751</c:v>
+                  <c:v>0.14666089042921887</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18656307424481769</c:v>
+                  <c:v>0.19348173820314585</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.22766691382700927</c:v>
+                  <c:v>0.23810317248733673</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.84283826042103227</c:v>
+                  <c:v>0.88892961876832854</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.0198265579161159</c:v>
+                  <c:v>1.0965075979738739</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0163448209162127</c:v>
+                  <c:v>1.0890429218874969</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7.3870530964892485</c:v>
+                  <c:v>8.0780791788856323</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6605,7 +7302,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
+              <c16:uniqueId val="{00000000-0279-4742-B2B7-DEBAB787DE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6628,7 +7325,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6663,7 +7360,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6720,7 +7417,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-IgnoreBackground'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -6728,46 +7425,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55.71913075421476</c:v>
+                  <c:v>75.130377145242406</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>55.716286695852901</c:v>
+                  <c:v>75.12798530346781</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.711188010860909</c:v>
+                  <c:v>75.120529440332277</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55.612390656014746</c:v>
+                  <c:v>74.946596950479957</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>55.394170828306606</c:v>
+                  <c:v>74.659514274832489</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>55.008148494607319</c:v>
+                  <c:v>74.361122028143001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>53.870118934010868</c:v>
+                  <c:v>72.800230865205037</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52.406175880511945</c:v>
+                  <c:v>70.743013765614279</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50.256856579395418</c:v>
+                  <c:v>68.016750853814955</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>46.471562538433759</c:v>
+                  <c:v>62.47875510616015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.774903095738722</c:v>
+                  <c:v>60.272480055923516</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.5190536736438887</c:v>
+                  <c:v>11.175554652510222</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.3922938619277323</c:v>
+                  <c:v>9.6411995187386239</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7.3922938619277323</c:v>
+                  <c:v>9.6411995187386239</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -6778,7 +7475,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
+              <c16:uniqueId val="{00000001-0279-4742-B2B7-DEBAB787DE3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7153,7 +7850,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$E$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7188,7 +7885,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7245,7 +7942,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7253,49 +7950,49 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6949940439873326</c:v>
+                  <c:v>1.6420580934266096</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0358522908858478</c:v>
+                  <c:v>1.0205680389438732</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51390220517737295</c:v>
+                  <c:v>0.57264902156742636</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.27682384729364595</c:v>
+                  <c:v>0.32580031593539444</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.18321276039396844</c:v>
+                  <c:v>0.20319803991102228</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14907463900752493</c:v>
+                  <c:v>0.14955349946806795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.14773816787239608</c:v>
+                  <c:v>0.13108095038524775</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.17754728492983526</c:v>
+                  <c:v>0.12640639607982204</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.23205206426682939</c:v>
+                  <c:v>0.14200973596827751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35006827624277287</c:v>
+                  <c:v>0.18656307424481769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.3986170429123449</c:v>
+                  <c:v>0.22766691382700927</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.85603881577035934</c:v>
+                  <c:v>0.84283826042103227</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.1698480490426799</c:v>
+                  <c:v>1.0198265579161159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.0309131584299369</c:v>
+                  <c:v>1.0163448209162127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.755977802957668</c:v>
+                  <c:v>7.3870530964892485</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7303,7 +8000,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000000-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7326,7 +8023,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Benchmark-0'!$G$2</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7361,7 +8058,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7418,7 +8115,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
+              <c:f>'Benchmark-Fix Compare'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -7426,46 +8123,46 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98.404034733567556</c:v>
+                  <c:v>55.71913075421476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98.235459109266131</c:v>
+                  <c:v>55.716286695852901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98.233997674220674</c:v>
+                  <c:v>55.711188010860909</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.013468877933761</c:v>
+                  <c:v>55.612390656014746</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>91.288483051946173</c:v>
+                  <c:v>55.394170828306606</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>90.271434597823557</c:v>
+                  <c:v>55.008148494607319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>88.928756251136306</c:v>
+                  <c:v>53.870118934010868</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>81.024710093666101</c:v>
+                  <c:v>52.406175880511945</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63.115721335025931</c:v>
+                  <c:v>50.256856579395418</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42.70115925125949</c:v>
+                  <c:v>46.471562538433759</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>34.059361638859471</c:v>
+                  <c:v>44.774903095738722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.4701384253723315</c:v>
+                  <c:v>8.5190536736438887</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2.7941348025446291</c:v>
+                  <c:v>7.3922938619277323</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0</c:v>
@@ -7476,7 +8173,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
+              <c16:uniqueId val="{00000001-2227-2D47-82A7-D18DD015FC1D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7801,11 +8498,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Time</a:t>
+              <a:t>C Search &amp;</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> by max children</a:t>
+              <a:t> C Avg vs Max Children</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -7844,18 +8541,18 @@
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Org - stop watch'!$I$1</c:f>
+              <c:f>'Benchmark-0'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Fill (ms)</c:v>
+                  <c:v>C Search</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7886,53 +8583,56 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Org - stop watch'!$H$2:$H$16</c:f>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1024</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2048</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>8192</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>16384</c:v>
                 </c:pt>
               </c:numCache>
@@ -7940,62 +8640,65 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Org - stop watch'!$I$2:$I$16</c:f>
+              <c:f>'Benchmark-0'!$E$3:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>11.849500000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.4913999999999996</c:v>
+                  <c:v>1.6949940439873326</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.6646999999999998</c:v>
+                  <c:v>1.0358522908858478</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.4977999999999998</c:v>
+                  <c:v>0.51390220517737295</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.82340000000000002</c:v>
+                  <c:v>0.27682384729364595</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8145</c:v>
+                  <c:v>0.18321276039396844</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.5403</c:v>
+                  <c:v>0.14907463900752493</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.5151</c:v>
+                  <c:v>0.14773816787239608</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.54039999999999999</c:v>
+                  <c:v>0.17754728492983526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95350000000000001</c:v>
+                  <c:v>0.23205206426682939</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.40460000000000002</c:v>
+                  <c:v>0.35006827624277287</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.26979999999999998</c:v>
+                  <c:v>0.3986170429123449</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87849999999999995</c:v>
+                  <c:v>0.85603881577035934</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47089999999999999</c:v>
+                  <c:v>1.1698480490426799</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.41499999999999998</c:v>
+                  <c:v>1.0309131584299369</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.755977802957668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6D76-704B-877A-B5EA1B0281DC}"/>
+              <c16:uniqueId val="{00000000-2803-F747-B975-326804F98C39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8007,22 +8710,22 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="199584576"/>
-        <c:axId val="955623504"/>
+        <c:axId val="200140560"/>
+        <c:axId val="1829147359"/>
       </c:scatterChart>
       <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Org - stop watch'!$J$1</c:f>
+              <c:f>'Benchmark-0'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Seach (MS)</c:v>
+                  <c:v>C Avg Dif</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -8053,53 +8756,56 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Org - stop watch'!$H$2:$H$16</c:f>
+              <c:f>'Benchmark-0'!$A$3:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>512</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1024</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>2048</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>4096</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>8192</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>16384</c:v>
                 </c:pt>
               </c:numCache>
@@ -8107,62 +8813,65 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Org - stop watch'!$J$2:$J$16</c:f>
+              <c:f>'Benchmark-0'!$G$3:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>564.75660000000005</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>356.76830000000001</c:v>
+                  <c:v>98.404034733567556</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>212.4025</c:v>
+                  <c:v>98.235459109266131</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111.64619999999999</c:v>
+                  <c:v>98.233997674220674</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.5899</c:v>
+                  <c:v>97.013468877933761</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63.001399999999997</c:v>
+                  <c:v>91.288483051946173</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.874200000000002</c:v>
+                  <c:v>90.271434597823557</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.807900000000004</c:v>
+                  <c:v>88.928756251136306</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.383899999999997</c:v>
+                  <c:v>81.024710093666101</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>141.52950000000001</c:v>
+                  <c:v>63.115721335025931</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>162.66239999999999</c:v>
+                  <c:v>42.70115925125949</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>334.02800000000002</c:v>
+                  <c:v>34.059361638859471</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>403.62090000000001</c:v>
+                  <c:v>7.4701384253723315</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>405.44970000000001</c:v>
+                  <c:v>2.7941348025446291</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3031.9222</c:v>
+                  <c:v>2.7941348025446291</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="1"/>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6D76-704B-877A-B5EA1B0281DC}"/>
+              <c16:uniqueId val="{00000001-2803-F747-B975-326804F98C39}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8174,15 +8883,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1830676399"/>
-        <c:axId val="1830033343"/>
+        <c:axId val="1830783935"/>
+        <c:axId val="199545920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="199584576"/>
+        <c:axId val="200140560"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
           <c:max val="10000"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -8237,15 +8947,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="955623504"/>
+        <c:crossAx val="1829147359"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="955623504"/>
+        <c:axId val="1829147359"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="15"/>
+          <c:max val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8300,15 +9010,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199584576"/>
+        <c:crossAx val="200140560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1830033343"/>
+        <c:axId val="199545920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="500"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -8349,12 +9058,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1830676399"/>
+        <c:crossAx val="1830783935"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1830676399"/>
+        <c:axId val="1830783935"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -8365,7 +9074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1830033343"/>
+        <c:crossAx val="199545920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8573,6 +9282,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10996,6 +11745,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -15144,7 +16409,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE36DA36-CECF-7844-BE6F-0BEC20C3BB16}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11A159EC-F1B8-9A4A-B296-BDB5C95FA71B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15167,306 +16432,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA15113-EBC7-F945-94BB-073C3763AC8A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594B1132-4B0F-6C4E-A755-285713B2522C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F41FEA7-ABD5-9448-9EE2-E0D506C247EB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7760DA6D-D0CE-054A-9373-C6DA3B7EEEEF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310D69AC-5546-E54B-8C12-154841A04AC6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740C64C1-7C37-8D44-A046-7FAD9C1B77A4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA22562E-755F-244A-A374-95F72066A177}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -15615,10 +16581,352 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE36DA36-CECF-7844-BE6F-0BEC20C3BB16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FA15113-EBC7-F945-94BB-073C3763AC8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{594B1132-4B0F-6C4E-A755-285713B2522C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F41FEA7-ABD5-9448-9EE2-E0D506C247EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7760DA6D-D0CE-054A-9373-C6DA3B7EEEEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310D69AC-5546-E54B-8C12-154841A04AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{740C64C1-7C37-8D44-A046-7FAD9C1B77A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA22562E-755F-244A-A374-95F72066A177}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -15656,7 +16964,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -15762,7 +17070,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15904,14 +17212,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C765D4-9ABC-6D4C-89D2-02FB84E85A14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137813BF-6244-2F41-B992-32B20C2CADD3}">
   <dimension ref="A2:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -15944,7 +17252,7 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>165.26</v>
+        <v>133.63999999999999</v>
       </c>
       <c r="C3">
         <v>1.26138969316015</v>
@@ -15970,7 +17278,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>470.36</v>
+        <v>750.81</v>
       </c>
       <c r="C4">
         <v>82.538015905202897</v>
@@ -15980,7 +17288,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>2.846181774174029</v>
+        <v>5.6181532475306799</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -15996,7 +17304,7 @@
         <v>2</v>
       </c>
       <c r="B5">
-        <v>254.16</v>
+        <v>529.1</v>
       </c>
       <c r="C5">
         <v>82.538015905202897</v>
@@ -16006,7 +17314,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>1.537940215418129</v>
+        <v>3.9591439688715959</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -16022,7 +17330,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>132.74</v>
+        <v>323.14</v>
       </c>
       <c r="C6">
         <v>82.538015905202897</v>
@@ -16032,7 +17340,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>0.80321916979305352</v>
+        <v>2.4179886261598327</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -16048,7 +17356,7 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>79.569999999999993</v>
+        <v>189.37</v>
       </c>
       <c r="C7">
         <v>82.538015905202897</v>
@@ -16058,7 +17366,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.48148372261890354</v>
+        <v>1.4170158635139181</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -16074,7 +17382,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>52.7</v>
+        <v>110.86</v>
       </c>
       <c r="C8">
         <v>82.538015905202897</v>
@@ -16084,7 +17392,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.31889144378555007</v>
+        <v>0.82954205327746189</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
@@ -16100,7 +17408,7 @@
         <v>32</v>
       </c>
       <c r="B9">
-        <v>40.56</v>
+        <v>72.78</v>
       </c>
       <c r="C9">
         <v>82.538015905202897</v>
@@ -16110,7 +17418,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>0.24543144136512166</v>
+        <v>0.54459742592038318</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
@@ -16126,7 +17434,7 @@
         <v>64</v>
       </c>
       <c r="B10">
-        <v>35.03</v>
+        <v>57.8</v>
       </c>
       <c r="C10">
         <v>82.538015905202897</v>
@@ -16136,7 +17444,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>0.21196901851627739</v>
+        <v>0.43250523795270879</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
@@ -16152,7 +17460,7 @@
         <v>128</v>
       </c>
       <c r="B11">
-        <v>32.92</v>
+        <v>51.92</v>
       </c>
       <c r="C11">
         <v>82.538015905202897</v>
@@ -16162,7 +17470,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>0.19920125862277624</v>
+        <v>0.38850643519904227</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
@@ -16178,7 +17486,7 @@
         <v>256</v>
       </c>
       <c r="B12">
-        <v>33.15</v>
+        <v>53.52</v>
       </c>
       <c r="C12">
         <v>82.538015905202897</v>
@@ -16188,7 +17496,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>0.20059300496187826</v>
+        <v>0.40047889853337332</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
@@ -16204,7 +17512,7 @@
         <v>512</v>
       </c>
       <c r="B13">
-        <v>39.229999999999997</v>
+        <v>64.28</v>
       </c>
       <c r="C13">
         <v>82.538015905202897</v>
@@ -16214,7 +17522,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.23738351688248818</v>
+        <v>0.48099371445674954</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
@@ -16230,7 +17538,7 @@
         <v>1024</v>
       </c>
       <c r="B14">
-        <v>62.35</v>
+        <v>85.67</v>
       </c>
       <c r="C14">
         <v>82.538015905202897</v>
@@ -16240,7 +17548,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.37728427931743924</v>
+        <v>0.6410505836575876</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
@@ -16256,7 +17564,7 @@
         <v>2048</v>
       </c>
       <c r="B15">
-        <v>250.62</v>
+        <v>171.66</v>
       </c>
       <c r="C15">
         <v>55.8877226475811</v>
@@ -16266,7 +17574,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>1.5165194239380371</v>
+        <v>1.2844956599820414</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
@@ -16282,7 +17590,7 @@
         <v>4096</v>
       </c>
       <c r="B16">
-        <v>296.31</v>
+        <v>305.39999999999998</v>
       </c>
       <c r="C16">
         <v>55.8877226475811</v>
@@ -16292,7 +17600,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>1.7929928597361735</v>
+        <v>2.2852439389404369</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
@@ -16308,7 +17616,7 @@
         <v>8192</v>
       </c>
       <c r="B17">
-        <v>298.58999999999997</v>
+        <v>275.24</v>
       </c>
       <c r="C17">
         <v>55.8877226475811</v>
@@ -16318,7 +17626,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>1.8067893017064021</v>
+        <v>2.0595630050882971</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
@@ -16334,7 +17642,7 @@
         <v>16384</v>
       </c>
       <c r="B18" s="5">
-        <v>2136.48</v>
+        <v>2062.96</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -16344,7 +17652,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>12.92799225462907</v>
+        <v>15.436695600119727</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
@@ -16367,6 +17675,467 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393E3666-8983-354A-B652-1578FACF0E70}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="4"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>344.19</v>
+      </c>
+      <c r="C3">
+        <v>83.318665375772795</v>
+      </c>
+      <c r="D3">
+        <v>1.09479433449998</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E18" si="0">B3/B$3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F18" si="1">C3/C$3</f>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G18" si="2">D3/D$3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>583.4</v>
+      </c>
+      <c r="C4">
+        <v>220.549314213397</v>
+      </c>
+      <c r="D4">
+        <v>107.732179718249</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>1.6949940439873326</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>2.6470576937197055</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>98.404034733567556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>356.53</v>
+      </c>
+      <c r="C5">
+        <v>220.549314213397</v>
+      </c>
+      <c r="D5">
+        <v>107.54762407982901</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.0358522908858478</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>2.6470576937197055</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>98.235459109266131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>176.88</v>
+      </c>
+      <c r="C6">
+        <v>220.549314213397</v>
+      </c>
+      <c r="D6">
+        <v>107.546024109021</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.51390220517737295</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>2.6470576937197055</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>98.233997674220674</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>95.28</v>
+      </c>
+      <c r="C7">
+        <v>220.549314213397</v>
+      </c>
+      <c r="D7">
+        <v>106.209796097752</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.27682384729364595</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.6470576937197055</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>97.013468877933761</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>63.06</v>
+      </c>
+      <c r="C8">
+        <v>217.112873869791</v>
+      </c>
+      <c r="D8">
+        <v>99.942114050368104</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.18321276039396844</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>2.6058131499178163</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>91.288483051946173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>51.31</v>
+      </c>
+      <c r="C9">
+        <v>209.00717691026699</v>
+      </c>
+      <c r="D9">
+        <v>98.828655164882704</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.14907463900752493</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>2.5085276626507462</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>90.271434597823557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>50.85</v>
+      </c>
+      <c r="C10">
+        <v>209.00717691026699</v>
+      </c>
+      <c r="D10">
+        <v>97.358698517873705</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.14773816787239608</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>2.5085276626507462</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>88.928756251136306</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>61.11</v>
+      </c>
+      <c r="C11">
+        <v>195.15122341404799</v>
+      </c>
+      <c r="D11">
+        <v>88.705393565048993</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.17754728492983526</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>2.3422269491944312</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>81.024710093666101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <v>79.87</v>
+      </c>
+      <c r="C12">
+        <v>166.856225535638</v>
+      </c>
+      <c r="D12">
+        <v>69.098734135465904</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.23205206426682939</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>2.0026271998369776</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>63.115721335025931</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13">
+        <v>120.49</v>
+      </c>
+      <c r="C13">
+        <v>163.47782724271801</v>
+      </c>
+      <c r="D13">
+        <v>46.748987224860301</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.35006827624277287</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>1.9620792832605034</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>42.70115925125949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1024</v>
+      </c>
+      <c r="B14">
+        <v>137.19999999999999</v>
+      </c>
+      <c r="C14">
+        <v>121.268297588446</v>
+      </c>
+      <c r="D14">
+        <v>37.287996158909301</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.3986170429123449</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>1.4554757573410209</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>34.059361638859471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2048</v>
+      </c>
+      <c r="B15">
+        <v>294.64</v>
+      </c>
+      <c r="C15">
+        <v>109.77249200049999</v>
+      </c>
+      <c r="D15">
+        <v>8.1782652260282305</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>0.85603881577035934</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1.317501804732693</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>7.4701384253723315</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4096</v>
+      </c>
+      <c r="B16">
+        <v>402.65</v>
+      </c>
+      <c r="C16">
+        <v>90.509667991878004</v>
+      </c>
+      <c r="D16">
+        <v>3.0590029516550801</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.1698480490426799</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>1.0863072228014372</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>2.7941348025446291</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8192</v>
+      </c>
+      <c r="B17">
+        <v>354.83</v>
+      </c>
+      <c r="C17">
+        <v>90.509667991878004</v>
+      </c>
+      <c r="D17">
+        <v>3.0590029516550801</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.0309131584299369</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>1.0863072228014372</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>2.7941348025446291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16384</v>
+      </c>
+      <c r="B18" s="5">
+        <v>3013.72</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>8.755977802957668</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B18">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{310253C2-5867-A04F-B696-06BC56F172E8}">
   <dimension ref="A1:U17"/>
   <sheetViews>
@@ -17553,6 +19322,464 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04C765D4-9ABC-6D4C-89D2-02FB84E85A14}">
+  <dimension ref="A2:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>165.26</v>
+      </c>
+      <c r="C3">
+        <v>1.26138969316015</v>
+      </c>
+      <c r="D3">
+        <v>6.3556460153053093E-2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:G18" si="0">B3/B$3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>470.36</v>
+      </c>
+      <c r="C4">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D4">
+        <v>4.7750208213154499</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>2.846181774174029</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>75.130377145242406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>254.16</v>
+      </c>
+      <c r="C5">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D5">
+        <v>4.7748688043190102</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>1.537940215418129</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>75.12798530346781</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>132.74</v>
+      </c>
+      <c r="C6">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D6">
+        <v>4.7743949360507303</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>0.80321916979305352</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>75.120529440332277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>79.569999999999993</v>
+      </c>
+      <c r="C7">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D7">
+        <v>4.7633404026901101</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>0.48148372261890354</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>74.946596950479957</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>52.7</v>
+      </c>
+      <c r="C8">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D8">
+        <v>4.7450944440546898</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>0.31889144378555007</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>74.659514274832489</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>40.56</v>
+      </c>
+      <c r="C9">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D9">
+        <v>4.7261296891179896</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.24543144136512166</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>74.361122028143001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>35.03</v>
+      </c>
+      <c r="C10">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D10">
+        <v>4.6269249721174699</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.21196901851627739</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>72.800230865205037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>128</v>
+      </c>
+      <c r="B11">
+        <v>32.92</v>
+      </c>
+      <c r="C11">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D11">
+        <v>4.4961755355011501</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.19920125862277624</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>70.743013765614279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>256</v>
+      </c>
+      <c r="B12">
+        <v>33.15</v>
+      </c>
+      <c r="C12">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D12">
+        <v>4.3229039153806301</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.20059300496187826</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>68.016750853814955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>512</v>
+      </c>
+      <c r="B13">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="C13">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D13">
+        <v>3.9709285093170301</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.23738351688248818</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>62.47875510616015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>1024</v>
+      </c>
+      <c r="B14">
+        <v>62.35</v>
+      </c>
+      <c r="C14">
+        <v>82.538015905202897</v>
+      </c>
+      <c r="D14">
+        <v>3.8307054769999902</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>0.37728427931743924</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>65.434192425039583</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>60.272480055923516</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2048</v>
+      </c>
+      <c r="B15">
+        <v>250.62</v>
+      </c>
+      <c r="C15">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D15">
+        <v>0.710278693960533</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.5165194239380371</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>11.175554652510222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4096</v>
+      </c>
+      <c r="B16">
+        <v>296.31</v>
+      </c>
+      <c r="C16">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D16">
+        <v>0.61276051304034596</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.7929928597361735</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>9.6411995187386239</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>8192</v>
+      </c>
+      <c r="B17">
+        <v>298.58999999999997</v>
+      </c>
+      <c r="C17">
+        <v>55.8877226475811</v>
+      </c>
+      <c r="D17" s="5">
+        <v>0.61276051304034596</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.8067893017064021</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>44.306468453508614</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>9.6411995187386239</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16384</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2136.48</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>12.92799225462907</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B4:B18">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="greaterThan">
+      <formula>$B$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81C1D8A7-E132-F44F-A6BE-36BAE380C2C0}">
   <dimension ref="A2:T18"/>
   <sheetViews>
@@ -18026,7 +20253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308CD095-D742-D342-9536-BC68A63C79E7}">
   <dimension ref="A2:R18"/>
   <sheetViews>
@@ -18487,7 +20714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2347A84-B413-504A-AB33-5D33B723CAFE}">
   <dimension ref="A2:R18"/>
   <sheetViews>
@@ -18948,7 +21175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7AEF0CA-7BED-8C47-B9D6-5A56E6D2CDD3}">
   <dimension ref="A2:L18"/>
   <sheetViews>
@@ -19406,7 +21633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEB006D-EF5F-2D4D-86DC-4D6E506A45E0}">
   <dimension ref="A2:L18"/>
   <sheetViews>
@@ -19863,7 +22090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5B42892-40D1-4548-A56D-9001ACB7B0BC}">
   <dimension ref="A2:I18"/>
   <sheetViews>
@@ -20336,7 +22563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC69C5D9-B88F-FF4D-BBBE-0229262C4A41}">
   <dimension ref="A1:L18"/>
   <sheetViews>
@@ -20813,463 +23040,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{393E3666-8983-354A-B652-1578FACF0E70}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="4"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>0.5</v>
-      </c>
-      <c r="B3">
-        <v>344.19</v>
-      </c>
-      <c r="C3">
-        <v>83.318665375772795</v>
-      </c>
-      <c r="D3">
-        <v>1.09479433449998</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E18" si="0">B3/B$3</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F18" si="1">C3/C$3</f>
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G18" si="2">D3/D$3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>583.4</v>
-      </c>
-      <c r="C4">
-        <v>220.549314213397</v>
-      </c>
-      <c r="D4">
-        <v>107.732179718249</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1.6949940439873326</v>
-      </c>
-      <c r="F4">
-        <f t="shared" si="1"/>
-        <v>2.6470576937197055</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>98.404034733567556</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>356.53</v>
-      </c>
-      <c r="C5">
-        <v>220.549314213397</v>
-      </c>
-      <c r="D5">
-        <v>107.54762407982901</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>1.0358522908858478</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="1"/>
-        <v>2.6470576937197055</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>98.235459109266131</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>176.88</v>
-      </c>
-      <c r="C6">
-        <v>220.549314213397</v>
-      </c>
-      <c r="D6">
-        <v>107.546024109021</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.51390220517737295</v>
-      </c>
-      <c r="F6">
-        <f t="shared" si="1"/>
-        <v>2.6470576937197055</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>98.233997674220674</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>95.28</v>
-      </c>
-      <c r="C7">
-        <v>220.549314213397</v>
-      </c>
-      <c r="D7">
-        <v>106.209796097752</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.27682384729364595</v>
-      </c>
-      <c r="F7">
-        <f t="shared" si="1"/>
-        <v>2.6470576937197055</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>97.013468877933761</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>63.06</v>
-      </c>
-      <c r="C8">
-        <v>217.112873869791</v>
-      </c>
-      <c r="D8">
-        <v>99.942114050368104</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.18321276039396844</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="1"/>
-        <v>2.6058131499178163</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>91.288483051946173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>51.31</v>
-      </c>
-      <c r="C9">
-        <v>209.00717691026699</v>
-      </c>
-      <c r="D9">
-        <v>98.828655164882704</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.14907463900752493</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="1"/>
-        <v>2.5085276626507462</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>90.271434597823557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>64</v>
-      </c>
-      <c r="B10">
-        <v>50.85</v>
-      </c>
-      <c r="C10">
-        <v>209.00717691026699</v>
-      </c>
-      <c r="D10">
-        <v>97.358698517873705</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.14773816787239608</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="1"/>
-        <v>2.5085276626507462</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>88.928756251136306</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>128</v>
-      </c>
-      <c r="B11">
-        <v>61.11</v>
-      </c>
-      <c r="C11">
-        <v>195.15122341404799</v>
-      </c>
-      <c r="D11">
-        <v>88.705393565048993</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.17754728492983526</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="1"/>
-        <v>2.3422269491944312</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>81.024710093666101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>256</v>
-      </c>
-      <c r="B12">
-        <v>79.87</v>
-      </c>
-      <c r="C12">
-        <v>166.856225535638</v>
-      </c>
-      <c r="D12">
-        <v>69.098734135465904</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.23205206426682939</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="1"/>
-        <v>2.0026271998369776</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>63.115721335025931</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>512</v>
-      </c>
-      <c r="B13">
-        <v>120.49</v>
-      </c>
-      <c r="C13">
-        <v>163.47782724271801</v>
-      </c>
-      <c r="D13">
-        <v>46.748987224860301</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.35006827624277287</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="1"/>
-        <v>1.9620792832605034</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>42.70115925125949</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>1024</v>
-      </c>
-      <c r="B14">
-        <v>137.19999999999999</v>
-      </c>
-      <c r="C14">
-        <v>121.268297588446</v>
-      </c>
-      <c r="D14">
-        <v>37.287996158909301</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>0.3986170429123449</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="1"/>
-        <v>1.4554757573410209</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>34.059361638859471</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2048</v>
-      </c>
-      <c r="B15">
-        <v>294.64</v>
-      </c>
-      <c r="C15">
-        <v>109.77249200049999</v>
-      </c>
-      <c r="D15">
-        <v>8.1782652260282305</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0.85603881577035934</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="1"/>
-        <v>1.317501804732693</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>7.4701384253723315</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>4096</v>
-      </c>
-      <c r="B16">
-        <v>402.65</v>
-      </c>
-      <c r="C16">
-        <v>90.509667991878004</v>
-      </c>
-      <c r="D16">
-        <v>3.0590029516550801</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>1.1698480490426799</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="1"/>
-        <v>1.0863072228014372</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>2.7941348025446291</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>8192</v>
-      </c>
-      <c r="B17">
-        <v>354.83</v>
-      </c>
-      <c r="C17">
-        <v>90.509667991878004</v>
-      </c>
-      <c r="D17">
-        <v>3.0590029516550801</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>1.0309131584299369</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="1"/>
-        <v>1.0863072228014372</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>2.7941348025446291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16384</v>
-      </c>
-      <c r="B18" s="5">
-        <v>3013.72</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>8.755977802957668</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B4:B18">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="greaterThan">
-      <formula>$B$3</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>